--- a/PFF_SCR_TAX_ADAM/281024_analysis_by_inclusion_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/281024_analysis_by_inclusion_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,417 +453,417 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>214</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>32</v>
+        <v>677</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>74</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>82</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>42</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="n">
         <v>27</v>
-      </c>
-      <c r="C29" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>14</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>14</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -886,10 +886,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39">
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
@@ -990,124 +990,124 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C44" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C45" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C46" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C47" t="n">
-        <v>17</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C48" t="n">
-        <v>39</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C49" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C50" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C51" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C52" t="n">
         <v>17</v>
@@ -1116,583 +1116,583 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_09</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C53" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C54" t="n">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C55" t="n">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C56" t="n">
-        <v>32</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C57" t="n">
-        <v>125</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C58" t="n">
-        <v>275</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C59" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C60" t="n">
-        <v>399</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C61" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C62" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C64" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C65" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C66" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C71" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C72" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C73" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C74" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>22</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C78" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C79" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C83" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C84" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C85" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C86" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C87" t="n">
-        <v>73</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C88" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C92" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C94" t="n">
-        <v>215</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C95" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C96" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C97" t="n">
         <v>14</v>
@@ -1701,27 +1701,27 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C98" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>271</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101">
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102">
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103">
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C103" t="n">
-        <v>14</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104">
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C104" t="n">
-        <v>89</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105">
@@ -1796,10 +1796,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C105" t="n">
-        <v>18</v>
+        <v>288</v>
       </c>
     </row>
     <row r="106">
@@ -1809,10 +1809,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C106" t="n">
-        <v>31</v>
+        <v>411</v>
       </c>
     </row>
     <row r="107">
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C107" t="n">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108">
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B108" t="n">
+        <v>8</v>
+      </c>
+      <c r="C108" t="n">
         <v>54</v>
-      </c>
-      <c r="C108" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="109">
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C109" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C110" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111">
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C111" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C112" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="C113" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="C114" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115">
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C115" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="C116" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117">
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C117" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118">
@@ -1965,10 +1965,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="C118" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119">
@@ -1978,10 +1978,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C119" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120">
@@ -1991,10 +1991,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C120" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121">
@@ -2004,10 +2004,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C121" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C122" t="n">
-        <v>102</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
@@ -2030,10 +2030,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C123" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124">
@@ -2043,10 +2043,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C124" t="n">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="125">
@@ -2056,10 +2056,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C125" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126">
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C126" t="n">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127">
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C127" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128">
@@ -2095,10 +2095,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C128" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129">
@@ -2108,10 +2108,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C129" t="n">
-        <v>108</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130">
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C130" t="n">
-        <v>93</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131">
@@ -2134,10 +2134,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C131" t="n">
-        <v>105</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132">
@@ -2147,215 +2147,215 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C132" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C133" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C134" t="n">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C135" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C136" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C137" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C138" t="n">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C139" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C140" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C141" t="n">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C142" t="n">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C143" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C144" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C145" t="n">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C146" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C147" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C148" t="n">
         <v>14</v>
@@ -2364,66 +2364,989 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C149" t="n">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C150" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_04</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C151" t="n">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_08</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C152" t="n">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B153" t="n">
+        <v>53</v>
+      </c>
+      <c r="C153" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>54</v>
+      </c>
+      <c r="C154" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>55</v>
+      </c>
+      <c r="C155" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>56</v>
+      </c>
+      <c r="C156" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>57</v>
+      </c>
+      <c r="C157" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>58</v>
+      </c>
+      <c r="C158" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>59</v>
+      </c>
+      <c r="C159" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>60</v>
+      </c>
+      <c r="C160" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>61</v>
+      </c>
+      <c r="C161" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>62</v>
+      </c>
+      <c r="C162" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>63</v>
+      </c>
+      <c r="C163" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>64</v>
+      </c>
+      <c r="C164" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>65</v>
+      </c>
+      <c r="C165" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>66</v>
+      </c>
+      <c r="C166" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>67</v>
+      </c>
+      <c r="C167" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>68</v>
+      </c>
+      <c r="C168" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>69</v>
+      </c>
+      <c r="C169" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>70</v>
+      </c>
+      <c r="C170" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>71</v>
+      </c>
+      <c r="C171" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>72</v>
+      </c>
+      <c r="C172" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
         <v>0</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C173" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C174" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+      <c r="C175" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>4</v>
+      </c>
+      <c r="C177" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>5</v>
+      </c>
+      <c r="C178" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>6</v>
+      </c>
+      <c r="C179" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>7</v>
+      </c>
+      <c r="C180" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>8</v>
+      </c>
+      <c r="C181" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>9</v>
+      </c>
+      <c r="C182" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>10</v>
+      </c>
+      <c r="C183" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>11</v>
+      </c>
+      <c r="C184" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>12</v>
+      </c>
+      <c r="C185" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>13</v>
+      </c>
+      <c r="C186" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>14</v>
+      </c>
+      <c r="C187" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>15</v>
+      </c>
+      <c r="C188" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>2</v>
+      </c>
+      <c r="C191" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>3</v>
+      </c>
+      <c r="C192" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>4</v>
+      </c>
+      <c r="C193" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>5</v>
+      </c>
+      <c r="C194" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>6</v>
+      </c>
+      <c r="C195" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>7</v>
+      </c>
+      <c r="C196" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>8</v>
+      </c>
+      <c r="C197" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>9</v>
+      </c>
+      <c r="C198" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>10</v>
+      </c>
+      <c r="C199" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>11</v>
+      </c>
+      <c r="C200" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>12</v>
+      </c>
+      <c r="C201" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>13</v>
+      </c>
+      <c r="C202" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>14</v>
+      </c>
+      <c r="C203" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>15</v>
+      </c>
+      <c r="C204" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
         <v>16</v>
+      </c>
+      <c r="C205" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>17</v>
+      </c>
+      <c r="C206" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_03</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0</v>
+      </c>
+      <c r="C207" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_03</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+      <c r="C208" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_04</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0</v>
+      </c>
+      <c r="C209" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_08</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_08</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0</v>
+      </c>
+      <c r="C211" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0</v>
+      </c>
+      <c r="C212" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0</v>
+      </c>
+      <c r="C213" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0</v>
+      </c>
+      <c r="C214" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+      <c r="C215" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+      <c r="C216" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>3</v>
+      </c>
+      <c r="C217" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0</v>
+      </c>
+      <c r="C218" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>0</v>
+      </c>
+      <c r="C220" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PFF_SCR_TAX_ADAM/281024_analysis_by_inclusion_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/281024_analysis_by_inclusion_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>108</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>117</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -704,621 +704,621 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_02</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>677</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_02</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>453</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_02</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>261</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_02</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_03</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_03</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>185</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_03</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_03</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_03</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_03</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_04</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>188</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_04</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>188</v>
+        <v>922</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C37" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>42</v>
+        <v>920</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="n">
         <v>12</v>
-      </c>
-      <c r="C46" t="n">
-        <v>56</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C47" t="n">
-        <v>215</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C48" t="n">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C49" t="n">
-        <v>22</v>
+        <v>684</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>22</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C54" t="n">
-        <v>33</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C55" t="n">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C56" t="n">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C57" t="n">
-        <v>86</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C58" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C59" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C60" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C61" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C62" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C63" t="n">
-        <v>14</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C64" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C65" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C66" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>41</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>13</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C72" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C73" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
@@ -1393,228 +1393,228 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C75" t="n">
-        <v>472</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C76" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C77" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C78" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C79" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C80" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C81" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C82" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C83" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C84" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C85" t="n">
-        <v>24</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C86" t="n">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C87" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C88" t="n">
-        <v>18</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C89" t="n">
-        <v>14</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C90" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C91" t="n">
         <v>18</v>
@@ -1623,50 +1623,50 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C92" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C93" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C94" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C95" t="n">
         <v>14</v>
@@ -1675,180 +1675,180 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C97" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C98" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_09</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C99" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C100" t="n">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C101" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C102" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C103" t="n">
-        <v>128</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C104" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C105" t="n">
-        <v>288</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C106" t="n">
-        <v>411</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C107" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C108" t="n">
-        <v>54</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C109" t="n">
         <v>13</v>
@@ -1857,167 +1857,167 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C110" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C111" t="n">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C112" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C113" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C114" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C115" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C116" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C117" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C118" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C119" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C120" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C121" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C122" t="n">
         <v>14</v>
@@ -2026,245 +2026,245 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C123" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C124" t="n">
-        <v>73</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C125" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C126" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C127" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C130" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C131" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C132" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C133" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C134" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C135" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C136" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C137" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C138" t="n">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>22</v>
+        <v>598</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C141" t="n">
         <v>19</v>
@@ -2273,154 +2273,154 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C142" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C143" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C144" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C145" t="n">
-        <v>220</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C146" t="n">
-        <v>27</v>
+        <v>78</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C147" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C148" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C149" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C150" t="n">
-        <v>11</v>
+        <v>108</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>275</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>94</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="C153" t="n">
         <v>39</v>
@@ -2429,222 +2429,222 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C154" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C155" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C156" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="C157" t="n">
-        <v>90</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C158" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C159" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C160" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="C161" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C162" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C163" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="C164" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C165" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C166" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C167" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C168" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C169" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="C170" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171">
@@ -2654,10 +2654,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>13</v>
+        <v>140</v>
       </c>
     </row>
     <row r="172">
@@ -2667,10 +2667,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>17</v>
+        <v>211</v>
       </c>
     </row>
     <row r="173">
@@ -2680,10 +2680,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C173" t="n">
-        <v>52</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="174">
@@ -2693,10 +2693,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C174" t="n">
-        <v>21</v>
+        <v>162</v>
       </c>
     </row>
     <row r="175">
@@ -2706,10 +2706,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C175" t="n">
-        <v>107</v>
+        <v>411</v>
       </c>
     </row>
     <row r="176">
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C176" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="177">
@@ -2732,10 +2732,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C177" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C178" t="n">
-        <v>30</v>
+        <v>104</v>
       </c>
     </row>
     <row r="179">
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C179" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="180">
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C180" t="n">
-        <v>134</v>
+        <v>88</v>
       </c>
     </row>
     <row r="181">
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C181" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182">
@@ -2797,10 +2797,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C182" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="183">
@@ -2810,10 +2810,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C183" t="n">
-        <v>120</v>
+        <v>79</v>
       </c>
     </row>
     <row r="184">
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C184" t="n">
-        <v>21</v>
+        <v>301</v>
       </c>
     </row>
     <row r="185">
@@ -2836,10 +2836,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C185" t="n">
-        <v>102</v>
+        <v>43</v>
       </c>
     </row>
     <row r="186">
@@ -2849,10 +2849,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C186" t="n">
-        <v>113</v>
+        <v>79</v>
       </c>
     </row>
     <row r="187">
@@ -2862,10 +2862,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C187" t="n">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="188">
@@ -2875,46 +2875,46 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C188" t="n">
-        <v>42</v>
+        <v>313</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C189" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C190" t="n">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C191" t="n">
         <v>41</v>
@@ -2923,297 +2923,297 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C192" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C193" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C194" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C195" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C196" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C197" t="n">
-        <v>131</v>
+        <v>48</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C198" t="n">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C199" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C200" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C201" t="n">
-        <v>45</v>
+        <v>247</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C202" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C203" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C204" t="n">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C205" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C206" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_03</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C207" t="n">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_03</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C208" t="n">
-        <v>158</v>
+        <v>206</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_04</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C209" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_08</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C210" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_08</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C211" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C212" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C213" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C214" t="n">
         <v>13</v>
@@ -3222,131 +3222,1587 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C215" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="C216" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C217" t="n">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C218" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C219" t="n">
-        <v>13</v>
+        <v>110</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C220" t="n">
-        <v>123</v>
+        <v>28</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C221" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_06</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C222" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_08</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C223" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_08</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B224" t="n">
+        <v>53</v>
+      </c>
+      <c r="C224" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>54</v>
+      </c>
+      <c r="C225" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>55</v>
+      </c>
+      <c r="C226" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>56</v>
+      </c>
+      <c r="C227" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>57</v>
+      </c>
+      <c r="C228" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>58</v>
+      </c>
+      <c r="C229" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>59</v>
+      </c>
+      <c r="C230" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>60</v>
+      </c>
+      <c r="C231" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>61</v>
+      </c>
+      <c r="C232" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>62</v>
+      </c>
+      <c r="C233" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>63</v>
+      </c>
+      <c r="C234" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>64</v>
+      </c>
+      <c r="C235" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>65</v>
+      </c>
+      <c r="C236" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>66</v>
+      </c>
+      <c r="C237" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>67</v>
+      </c>
+      <c r="C238" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>68</v>
+      </c>
+      <c r="C239" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>69</v>
+      </c>
+      <c r="C240" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>70</v>
+      </c>
+      <c r="C241" t="n">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>71</v>
+      </c>
+      <c r="C242" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>72</v>
+      </c>
+      <c r="C243" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>73</v>
+      </c>
+      <c r="C244" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>74</v>
+      </c>
+      <c r="C245" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>75</v>
+      </c>
+      <c r="C246" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>76</v>
+      </c>
+      <c r="C247" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>77</v>
+      </c>
+      <c r="C248" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>78</v>
+      </c>
+      <c r="C249" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>79</v>
+      </c>
+      <c r="C250" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>80</v>
+      </c>
+      <c r="C251" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>81</v>
+      </c>
+      <c r="C252" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>82</v>
+      </c>
+      <c r="C253" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>83</v>
+      </c>
+      <c r="C254" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>84</v>
+      </c>
+      <c r="C255" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>85</v>
+      </c>
+      <c r="C256" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>86</v>
+      </c>
+      <c r="C257" t="n">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>87</v>
+      </c>
+      <c r="C258" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>88</v>
+      </c>
+      <c r="C259" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>89</v>
+      </c>
+      <c r="C260" t="n">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>90</v>
+      </c>
+      <c r="C261" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>91</v>
+      </c>
+      <c r="C262" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>92</v>
+      </c>
+      <c r="C263" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>93</v>
+      </c>
+      <c r="C264" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>94</v>
+      </c>
+      <c r="C265" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>95</v>
+      </c>
+      <c r="C266" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>96</v>
+      </c>
+      <c r="C267" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>97</v>
+      </c>
+      <c r="C268" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>98</v>
+      </c>
+      <c r="C269" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>99</v>
+      </c>
+      <c r="C270" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>100</v>
+      </c>
+      <c r="C271" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>101</v>
+      </c>
+      <c r="C272" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>102</v>
+      </c>
+      <c r="C273" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>103</v>
+      </c>
+      <c r="C274" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>104</v>
+      </c>
+      <c r="C275" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>105</v>
+      </c>
+      <c r="C276" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>106</v>
+      </c>
+      <c r="C277" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>107</v>
+      </c>
+      <c r="C278" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>108</v>
+      </c>
+      <c r="C279" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>109</v>
+      </c>
+      <c r="C280" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>110</v>
+      </c>
+      <c r="C281" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>111</v>
+      </c>
+      <c r="C282" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>112</v>
+      </c>
+      <c r="C283" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>113</v>
+      </c>
+      <c r="C284" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>114</v>
+      </c>
+      <c r="C285" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>115</v>
+      </c>
+      <c r="C286" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>116</v>
+      </c>
+      <c r="C287" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_01</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>117</v>
+      </c>
+      <c r="C288" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>0</v>
+      </c>
+      <c r="C289" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
         <v>1</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C290" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>2</v>
+      </c>
+      <c r="C291" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>3</v>
+      </c>
+      <c r="C292" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>4</v>
+      </c>
+      <c r="C293" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>5</v>
+      </c>
+      <c r="C294" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>6</v>
+      </c>
+      <c r="C295" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>7</v>
+      </c>
+      <c r="C296" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>8</v>
+      </c>
+      <c r="C297" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>9</v>
+      </c>
+      <c r="C298" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>10</v>
+      </c>
+      <c r="C299" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>11</v>
+      </c>
+      <c r="C300" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>12</v>
+      </c>
+      <c r="C301" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>13</v>
+      </c>
+      <c r="C302" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>14</v>
+      </c>
+      <c r="C303" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>15</v>
+      </c>
+      <c r="C304" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>16</v>
+      </c>
+      <c r="C305" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>17</v>
+      </c>
+      <c r="C306" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>18</v>
+      </c>
+      <c r="C307" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>19</v>
+      </c>
+      <c r="C308" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>20</v>
+      </c>
+      <c r="C309" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>21</v>
+      </c>
+      <c r="C310" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>22</v>
+      </c>
+      <c r="C311" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>23</v>
+      </c>
+      <c r="C312" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>24</v>
+      </c>
+      <c r="C313" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>25</v>
+      </c>
+      <c r="C314" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_08</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0</v>
+      </c>
+      <c r="C315" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>0</v>
+      </c>
+      <c r="C316" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+      <c r="C317" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>2</v>
+      </c>
+      <c r="C318" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>0</v>
+      </c>
+      <c r="C319" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+      <c r="C320" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>2</v>
+      </c>
+      <c r="C321" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>3</v>
+      </c>
+      <c r="C322" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>4</v>
+      </c>
+      <c r="C323" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>5</v>
+      </c>
+      <c r="C324" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>6</v>
+      </c>
+      <c r="C325" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>7</v>
+      </c>
+      <c r="C326" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>8</v>
+      </c>
+      <c r="C327" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>9</v>
+      </c>
+      <c r="C328" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>10</v>
+      </c>
+      <c r="C329" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>11</v>
+      </c>
+      <c r="C330" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>12</v>
+      </c>
+      <c r="C331" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>13</v>
+      </c>
+      <c r="C332" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>14</v>
+      </c>
+      <c r="C333" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>15</v>
+      </c>
+      <c r="C334" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>16</v>
+      </c>
+      <c r="C335" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>17</v>
+      </c>
+      <c r="C336" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/PFF_SCR_TAX_ADAM/281024_analysis_by_inclusion_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/281024_analysis_by_inclusion_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C336"/>
+  <dimension ref="A1:C413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>325</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>88</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>197</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>86</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>131</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>123</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>150</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>64</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>53</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +798,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>57</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>922</v>
+        <v>972</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>28</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -902,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +915,7 @@
         <v>5</v>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43">
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" t="n">
-        <v>920</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="45">
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46">
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="n">
-        <v>12</v>
+        <v>805</v>
       </c>
     </row>
     <row r="47">
@@ -1042,36 +1042,36 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_02</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_02</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>684</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50">
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -1094,10 +1094,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52">
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" t="n">
-        <v>21</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53">
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C53" t="n">
-        <v>143</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54">
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C54" t="n">
-        <v>273</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55" t="n">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C56" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C57" t="n">
-        <v>135</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C58" t="n">
-        <v>17</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C59" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C60" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C61" t="n">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C62" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C63" t="n">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C64" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C65" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66">
@@ -1289,127 +1289,127 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C66" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_04</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C67" t="n">
-        <v>344</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_04</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C68" t="n">
-        <v>331</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C69" t="n">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C70" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C71" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>54</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>80</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>25</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>11</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C80" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C82" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C83" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C85" t="n">
-        <v>102</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C86" t="n">
-        <v>95</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C87" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88">
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C88" t="n">
-        <v>278</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89">
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C89" t="n">
-        <v>160</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C90" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C91" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C92" t="n">
-        <v>55</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C93" t="n">
         <v>28</v>
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C94" t="n">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C95" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96">
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C96" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97">
@@ -1692,10 +1692,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C97" t="n">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
@@ -1705,10 +1705,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C98" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99">
@@ -1718,10 +1718,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C99" t="n">
-        <v>16</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100">
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C100" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101">
@@ -1744,10 +1744,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C101" t="n">
-        <v>22</v>
+        <v>398</v>
       </c>
     </row>
     <row r="102">
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C102" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103">
@@ -1770,10 +1770,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C103" t="n">
-        <v>41</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104">
@@ -1783,10 +1783,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C104" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105">
@@ -1796,10 +1796,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C105" t="n">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
@@ -1809,10 +1809,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C106" t="n">
-        <v>105</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107">
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C107" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108">
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C108" t="n">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109">
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C109" t="n">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C110" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111">
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C111" t="n">
-        <v>69</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C112" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C113" t="n">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C114" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115">
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C115" t="n">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="116">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C116" t="n">
-        <v>28</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117">
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C117" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="118">
@@ -1965,10 +1965,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C118" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119">
@@ -1978,10 +1978,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C119" t="n">
-        <v>31</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120">
@@ -1991,10 +1991,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C120" t="n">
-        <v>28</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C121" t="n">
         <v>17</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C122" t="n">
-        <v>14</v>
+        <v>172</v>
       </c>
     </row>
     <row r="123">
@@ -2030,10 +2030,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C123" t="n">
-        <v>36</v>
+        <v>226</v>
       </c>
     </row>
     <row r="124">
@@ -2043,10 +2043,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C124" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125">
@@ -2056,10 +2056,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C125" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126">
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C126" t="n">
-        <v>30</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127">
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C127" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128">
@@ -2095,10 +2095,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C128" t="n">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129">
@@ -2108,10 +2108,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C129" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130">
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="C130" t="n">
-        <v>22</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131">
@@ -2134,10 +2134,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C131" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132">
@@ -2147,10 +2147,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C132" t="n">
-        <v>47</v>
+        <v>103</v>
       </c>
     </row>
     <row r="133">
@@ -2160,10 +2160,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C133" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134">
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C134" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135">
@@ -2186,10 +2186,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C135" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="136">
@@ -2199,10 +2199,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="C136" t="n">
-        <v>34</v>
+        <v>295</v>
       </c>
     </row>
     <row r="137">
@@ -2212,10 +2212,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C137" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138">
@@ -2225,228 +2225,228 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="C138" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C139" t="n">
-        <v>598</v>
+        <v>46</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C140" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C141" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C142" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C143" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C144" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C145" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C150" t="n">
-        <v>108</v>
+        <v>32</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C151" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C152" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C153" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C154" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C155" t="n">
         <v>28</v>
@@ -2455,911 +2455,911 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C156" t="n">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C157" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C158" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C159" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C160" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C161" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C162" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C163" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C164" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C165" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C166" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C167" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C168" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>22</v>
+        <v>677</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C171" t="n">
-        <v>140</v>
+        <v>51</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C172" t="n">
-        <v>211</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C173" t="n">
-        <v>1506</v>
+        <v>26</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C174" t="n">
-        <v>162</v>
+        <v>68</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C175" t="n">
-        <v>411</v>
+        <v>158</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C176" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C177" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C178" t="n">
-        <v>104</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C179" t="n">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C180" t="n">
-        <v>88</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C181" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B182" t="n">
+        <v>13</v>
+      </c>
+      <c r="C182" t="n">
         <v>11</v>
-      </c>
-      <c r="C182" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C183" t="n">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C184" t="n">
-        <v>301</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C185" t="n">
-        <v>43</v>
+        <v>124</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C186" t="n">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>96</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>313</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C189" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C190" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C191" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C192" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C193" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C194" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C195" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C196" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C197" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C198" t="n">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C199" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C200" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B201" t="n">
+        <v>14</v>
+      </c>
+      <c r="C201" t="n">
         <v>30</v>
-      </c>
-      <c r="C201" t="n">
-        <v>247</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C202" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C203" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C204" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C205" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C206" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C207" t="n">
-        <v>147</v>
+        <v>53</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C208" t="n">
-        <v>206</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C209" t="n">
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C210" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C211" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C212" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C213" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C214" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C215" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C216" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C217" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C218" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C219" t="n">
-        <v>110</v>
+        <v>19</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C220" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C221" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C222" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226">
@@ -3369,10 +3369,10 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>73</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="227">
@@ -3382,10 +3382,10 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C227" t="n">
-        <v>107</v>
+        <v>181</v>
       </c>
     </row>
     <row r="228">
@@ -3395,10 +3395,10 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C228" t="n">
-        <v>39</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="229">
@@ -3408,10 +3408,10 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C229" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="230">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C230" t="n">
-        <v>110</v>
+        <v>29</v>
       </c>
     </row>
     <row r="231">
@@ -3434,10 +3434,10 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C231" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="232">
@@ -3447,10 +3447,10 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C232" t="n">
-        <v>191</v>
+        <v>130</v>
       </c>
     </row>
     <row r="233">
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="C233" t="n">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="234">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C234" t="n">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="235">
@@ -3486,10 +3486,10 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="C235" t="n">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="236">
@@ -3499,10 +3499,10 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C236" t="n">
-        <v>274</v>
+        <v>363</v>
       </c>
     </row>
     <row r="237">
@@ -3512,10 +3512,10 @@
         </is>
       </c>
       <c r="B237" t="n">
+        <v>11</v>
+      </c>
+      <c r="C237" t="n">
         <v>66</v>
-      </c>
-      <c r="C237" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="238">
@@ -3525,10 +3525,10 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C238" t="n">
-        <v>35</v>
+        <v>516</v>
       </c>
     </row>
     <row r="239">
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="C239" t="n">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="240">
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C240" t="n">
         <v>18</v>
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="C241" t="n">
-        <v>504</v>
+        <v>42</v>
       </c>
     </row>
     <row r="242">
@@ -3577,10 +3577,10 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C242" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="243">
@@ -3590,10 +3590,10 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C243" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="244">
@@ -3603,10 +3603,10 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="C244" t="n">
-        <v>43</v>
+        <v>844</v>
       </c>
     </row>
     <row r="245">
@@ -3616,10 +3616,10 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="C245" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="246">
@@ -3629,10 +3629,10 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C246" t="n">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="247">
@@ -3642,10 +3642,10 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="C247" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="248">
@@ -3655,10 +3655,10 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="C248" t="n">
-        <v>126</v>
+        <v>88</v>
       </c>
     </row>
     <row r="249">
@@ -3668,10 +3668,10 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="C249" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="250">
@@ -3681,10 +3681,10 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C250" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="251">
@@ -3694,10 +3694,10 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C251" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="252">
@@ -3707,10 +3707,10 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="C252" t="n">
-        <v>138</v>
+        <v>19</v>
       </c>
     </row>
     <row r="253">
@@ -3720,10 +3720,10 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="C253" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254">
@@ -3733,10 +3733,10 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="C254" t="n">
-        <v>55</v>
+        <v>317</v>
       </c>
     </row>
     <row r="255">
@@ -3746,10 +3746,10 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="C255" t="n">
-        <v>31</v>
+        <v>89</v>
       </c>
     </row>
     <row r="256">
@@ -3759,10 +3759,10 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C256" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="257">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C257" t="n">
-        <v>841</v>
+        <v>67</v>
       </c>
     </row>
     <row r="258">
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="C258" t="n">
         <v>43</v>
@@ -3798,10 +3798,10 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="C259" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="260">
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="C260" t="n">
-        <v>415</v>
+        <v>62</v>
       </c>
     </row>
     <row r="261">
@@ -3824,10 +3824,10 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="C261" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="262">
@@ -3837,10 +3837,10 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="C262" t="n">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
     <row r="263">
@@ -3850,10 +3850,10 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="C263" t="n">
-        <v>36</v>
+        <v>133</v>
       </c>
     </row>
     <row r="264">
@@ -3863,10 +3863,10 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="C264" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="265">
@@ -3876,10 +3876,10 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="C265" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="266">
@@ -3889,10 +3889,10 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="C266" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="267">
@@ -3902,10 +3902,10 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="C267" t="n">
-        <v>211</v>
+        <v>60</v>
       </c>
     </row>
     <row r="268">
@@ -3915,10 +3915,10 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="C268" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="269">
@@ -3928,10 +3928,10 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="C269" t="n">
-        <v>161</v>
+        <v>60</v>
       </c>
     </row>
     <row r="270">
@@ -3941,10 +3941,10 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C270" t="n">
-        <v>135</v>
+        <v>82</v>
       </c>
     </row>
     <row r="271">
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C271" t="n">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="272">
@@ -3967,10 +3967,10 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="C272" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="273">
@@ -3980,10 +3980,10 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C273" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="274">
@@ -3993,10 +3993,10 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C274" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="275">
@@ -4006,10 +4006,10 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="C275" t="n">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="276">
@@ -4019,10 +4019,10 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C276" t="n">
-        <v>42</v>
+        <v>182</v>
       </c>
     </row>
     <row r="277">
@@ -4032,10 +4032,10 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C277" t="n">
-        <v>105</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="278">
@@ -4045,10 +4045,10 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="C278" t="n">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="279">
@@ -4058,10 +4058,10 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="C279" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="280">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="C280" t="n">
-        <v>238</v>
+        <v>93</v>
       </c>
     </row>
     <row r="281">
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="C281" t="n">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="282">
@@ -4097,10 +4097,10 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="C282" t="n">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="283">
@@ -4110,10 +4110,10 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="C283" t="n">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="284">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="C284" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="285">
@@ -4136,10 +4136,10 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="C285" t="n">
-        <v>30</v>
+        <v>92</v>
       </c>
     </row>
     <row r="286">
@@ -4149,10 +4149,10 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="C286" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="287">
@@ -4162,10 +4162,10 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="C287" t="n">
-        <v>171</v>
+        <v>36</v>
       </c>
     </row>
     <row r="288">
@@ -4175,634 +4175,1635 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="C288" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C289" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C290" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C291" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C292" t="n">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C293" t="n">
-        <v>54</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C294" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C295" t="n">
-        <v>27</v>
+        <v>153</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C296" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C297" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="C298" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="C299" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="C300" t="n">
-        <v>174</v>
+        <v>26</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C301" t="n">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C302" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C303" t="n">
-        <v>26</v>
+        <v>106</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C304" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C305" t="n">
-        <v>68</v>
+        <v>197</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C306" t="n">
-        <v>80</v>
+        <v>267</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C307" t="n">
-        <v>41</v>
+        <v>138</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C308" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="C309" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C310" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C311" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="C312" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C313" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C314" t="n">
-        <v>30</v>
+        <v>555</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_08</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="C315" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C316" t="n">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C317" t="n">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="C318" t="n">
-        <v>34</v>
+        <v>187</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="C319" t="n">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="C320" t="n">
-        <v>26</v>
+        <v>163</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="C321" t="n">
-        <v>21</v>
+        <v>225</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="C322" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C324" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C325" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C326" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C327" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C328" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C329" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C330" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C331" t="n">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C332" t="n">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C333" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C334" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C335" t="n">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>13</v>
+      </c>
+      <c r="C336" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>14</v>
+      </c>
+      <c r="C337" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>15</v>
+      </c>
+      <c r="C338" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>16</v>
+      </c>
+      <c r="C339" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>17</v>
+      </c>
+      <c r="C340" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>18</v>
+      </c>
+      <c r="C341" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>19</v>
+      </c>
+      <c r="C342" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>20</v>
+      </c>
+      <c r="C343" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>21</v>
+      </c>
+      <c r="C344" t="n">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>22</v>
+      </c>
+      <c r="C345" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>23</v>
+      </c>
+      <c r="C346" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>24</v>
+      </c>
+      <c r="C347" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>25</v>
+      </c>
+      <c r="C348" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>26</v>
+      </c>
+      <c r="C349" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>27</v>
+      </c>
+      <c r="C350" t="n">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>28</v>
+      </c>
+      <c r="C351" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>29</v>
+      </c>
+      <c r="C352" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>30</v>
+      </c>
+      <c r="C353" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>31</v>
+      </c>
+      <c r="C354" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>32</v>
+      </c>
+      <c r="C355" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>33</v>
+      </c>
+      <c r="C356" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>34</v>
+      </c>
+      <c r="C357" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>35</v>
+      </c>
+      <c r="C358" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>36</v>
+      </c>
+      <c r="C359" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>37</v>
+      </c>
+      <c r="C360" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>38</v>
+      </c>
+      <c r="C361" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>39</v>
+      </c>
+      <c r="C362" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_08</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>0</v>
+      </c>
+      <c r="C363" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>0</v>
+      </c>
+      <c r="C364" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+      <c r="C365" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>2</v>
+      </c>
+      <c r="C366" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>3</v>
+      </c>
+      <c r="C367" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>4</v>
+      </c>
+      <c r="C368" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>5</v>
+      </c>
+      <c r="C369" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>6</v>
+      </c>
+      <c r="C370" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>7</v>
+      </c>
+      <c r="C371" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>8</v>
+      </c>
+      <c r="C372" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>9</v>
+      </c>
+      <c r="C373" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
           <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
-      <c r="B336" t="n">
+      <c r="B374" t="n">
+        <v>0</v>
+      </c>
+      <c r="C374" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+      <c r="C375" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>2</v>
+      </c>
+      <c r="C376" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>3</v>
+      </c>
+      <c r="C377" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>4</v>
+      </c>
+      <c r="C378" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>5</v>
+      </c>
+      <c r="C379" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>6</v>
+      </c>
+      <c r="C380" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>7</v>
+      </c>
+      <c r="C381" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>8</v>
+      </c>
+      <c r="C382" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>9</v>
+      </c>
+      <c r="C383" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>10</v>
+      </c>
+      <c r="C384" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>11</v>
+      </c>
+      <c r="C385" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>12</v>
+      </c>
+      <c r="C386" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>13</v>
+      </c>
+      <c r="C387" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>14</v>
+      </c>
+      <c r="C388" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>15</v>
+      </c>
+      <c r="C389" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>16</v>
+      </c>
+      <c r="C390" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
         <v>17</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C391" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>18</v>
+      </c>
+      <c r="C392" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
         <v>19</v>
+      </c>
+      <c r="C393" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>20</v>
+      </c>
+      <c r="C394" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>21</v>
+      </c>
+      <c r="C395" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>22</v>
+      </c>
+      <c r="C396" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>23</v>
+      </c>
+      <c r="C397" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>24</v>
+      </c>
+      <c r="C398" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>25</v>
+      </c>
+      <c r="C399" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>26</v>
+      </c>
+      <c r="C400" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>27</v>
+      </c>
+      <c r="C401" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>28</v>
+      </c>
+      <c r="C402" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>29</v>
+      </c>
+      <c r="C403" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>30</v>
+      </c>
+      <c r="C404" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>31</v>
+      </c>
+      <c r="C405" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>32</v>
+      </c>
+      <c r="C406" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>33</v>
+      </c>
+      <c r="C407" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>34</v>
+      </c>
+      <c r="C408" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>35</v>
+      </c>
+      <c r="C409" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>36</v>
+      </c>
+      <c r="C410" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>37</v>
+      </c>
+      <c r="C411" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>0</v>
+      </c>
+      <c r="C412" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+      <c r="C413" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/PFF_SCR_TAX_ADAM/281024_analysis_by_inclusion_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/281024_analysis_by_inclusion_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C413"/>
+  <dimension ref="A1:D340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Cell</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Inclusion_Area</t>
         </is>
       </c>
@@ -460,7 +465,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>103</v>
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +481,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>451</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>402</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +497,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +513,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +529,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>111</v>
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +545,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +561,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>213</v>
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +577,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>104</v>
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +593,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +609,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>277</v>
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +625,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +641,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +657,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +673,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>387</v>
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +689,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>226</v>
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +705,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>213</v>
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +721,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>86</v>
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +737,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>153</v>
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +753,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +769,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +785,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>93</v>
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +801,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>129</v>
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +817,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +833,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +849,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +865,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +881,10 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +897,10 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>52</v>
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +913,10 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>120</v>
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +929,10 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +945,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +961,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>972</v>
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>934</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +977,10 @@
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +993,10 @@
         <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -902,7 +1009,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="n">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +1025,10 @@
         <v>5</v>
       </c>
       <c r="C37" t="n">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +1041,10 @@
         <v>6</v>
       </c>
       <c r="C38" t="n">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +1057,10 @@
         <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>103</v>
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +1073,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>73</v>
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +1089,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="42">
@@ -980,7 +1105,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +1121,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -1006,7 +1137,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="n">
-        <v>1035</v>
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>965</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1153,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="46">
@@ -1032,7 +1169,10 @@
         <v>6</v>
       </c>
       <c r="C46" t="n">
-        <v>805</v>
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>735</v>
       </c>
     </row>
     <row r="47">
@@ -1045,7 +1185,10 @@
         <v>7</v>
       </c>
       <c r="C47" t="n">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -1058,7 +1201,10 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="49">
@@ -1071,7 +1217,10 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="50">
@@ -1084,7 +1233,10 @@
         <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51">
@@ -1097,7 +1249,10 @@
         <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>49</v>
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52">
@@ -1110,7 +1265,10 @@
         <v>4</v>
       </c>
       <c r="C52" t="n">
-        <v>192</v>
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>174</v>
       </c>
     </row>
     <row r="53">
@@ -1123,7 +1281,10 @@
         <v>5</v>
       </c>
       <c r="C53" t="n">
-        <v>383</v>
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="54">
@@ -1136,7 +1297,10 @@
         <v>6</v>
       </c>
       <c r="C54" t="n">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="55">
@@ -1149,7 +1313,10 @@
         <v>7</v>
       </c>
       <c r="C55" t="n">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="56">
@@ -1162,7 +1329,10 @@
         <v>8</v>
       </c>
       <c r="C56" t="n">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -1175,7 +1345,10 @@
         <v>9</v>
       </c>
       <c r="C57" t="n">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="58">
@@ -1188,7 +1361,10 @@
         <v>10</v>
       </c>
       <c r="C58" t="n">
-        <v>199</v>
+        <v>2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="59">
@@ -1201,7 +1377,10 @@
         <v>11</v>
       </c>
       <c r="C59" t="n">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="60">
@@ -1214,7 +1393,10 @@
         <v>12</v>
       </c>
       <c r="C60" t="n">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="61">
@@ -1227,7 +1409,10 @@
         <v>13</v>
       </c>
       <c r="C61" t="n">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="62">
@@ -1240,7 +1425,10 @@
         <v>14</v>
       </c>
       <c r="C62" t="n">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="63">
@@ -1253,7 +1441,10 @@
         <v>15</v>
       </c>
       <c r="C63" t="n">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="64">
@@ -1266,7 +1457,10 @@
         <v>16</v>
       </c>
       <c r="C64" t="n">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="65">
@@ -1279,7 +1473,10 @@
         <v>17</v>
       </c>
       <c r="C65" t="n">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="66">
@@ -1292,7 +1489,10 @@
         <v>18</v>
       </c>
       <c r="C66" t="n">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="67">
@@ -1305,7 +1505,10 @@
         <v>19</v>
       </c>
       <c r="C67" t="n">
-        <v>109</v>
+        <v>2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="68">
@@ -1318,98 +1521,122 @@
         <v>20</v>
       </c>
       <c r="C68" t="n">
-        <v>170</v>
+        <v>2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_03</t>
+          <t>1K_PFF_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>71</v>
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>356</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_03</t>
+          <t>1K_PFF_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_03</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_04</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>379</v>
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_04</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>361</v>
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_04</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_04</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C75" t="n">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="76">
@@ -1419,10 +1646,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="77">
@@ -1432,10 +1662,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C77" t="n">
-        <v>165</v>
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="78">
@@ -1445,10 +1678,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C78" t="n">
-        <v>254</v>
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="79">
@@ -1458,10 +1694,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C79" t="n">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="80">
@@ -1471,10 +1710,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C80" t="n">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="81">
@@ -1484,10 +1726,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C81" t="n">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="82">
@@ -1497,10 +1742,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C82" t="n">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="83">
@@ -1510,10 +1758,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C83" t="n">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="84">
@@ -1523,10 +1774,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C84" t="n">
-        <v>69</v>
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="85">
@@ -1536,10 +1790,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C85" t="n">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="86">
@@ -1549,10 +1806,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C86" t="n">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="87">
@@ -1562,10 +1822,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C87" t="n">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="88">
@@ -1575,10 +1838,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C88" t="n">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="89">
@@ -1588,10 +1854,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C89" t="n">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="90">
@@ -1601,10 +1870,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C90" t="n">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="91">
@@ -1614,10 +1886,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C91" t="n">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="92">
@@ -1627,10 +1902,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C92" t="n">
-        <v>156</v>
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="93">
@@ -1640,10 +1918,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C93" t="n">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="94">
@@ -1653,10 +1934,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C94" t="n">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="95">
@@ -1666,10 +1950,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C95" t="n">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>341</v>
       </c>
     </row>
     <row r="96">
@@ -1679,10 +1966,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C96" t="n">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="97">
@@ -1692,10 +1982,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C97" t="n">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="98">
@@ -1705,10 +1998,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C98" t="n">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="99">
@@ -1718,10 +2014,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C99" t="n">
-        <v>162</v>
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="100">
@@ -1731,10 +2030,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C100" t="n">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="101">
@@ -1744,10 +2046,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C101" t="n">
-        <v>398</v>
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="102">
@@ -1757,10 +2062,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C102" t="n">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="103">
@@ -1770,10 +2078,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C103" t="n">
-        <v>390</v>
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="104">
@@ -1783,10 +2094,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C104" t="n">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="105">
@@ -1796,10 +2110,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C105" t="n">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="106">
@@ -1809,10 +2126,13 @@
         </is>
       </c>
       <c r="B106" t="n">
+        <v>35</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
         <v>30</v>
-      </c>
-      <c r="C106" t="n">
-        <v>198</v>
       </c>
     </row>
     <row r="107">
@@ -1822,10 +2142,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C107" t="n">
-        <v>129</v>
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="108">
@@ -1835,10 +2158,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C108" t="n">
-        <v>89</v>
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="109">
@@ -1848,10 +2174,13 @@
         </is>
       </c>
       <c r="B109" t="n">
+        <v>38</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
         <v>33</v>
-      </c>
-      <c r="C109" t="n">
-        <v>68</v>
       </c>
     </row>
     <row r="110">
@@ -1861,10 +2190,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C110" t="n">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="111">
@@ -1874,10 +2206,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C111" t="n">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="112">
@@ -1887,10 +2222,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C112" t="n">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="113">
@@ -1900,10 +2238,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C113" t="n">
-        <v>84</v>
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="114">
@@ -1913,10 +2254,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C114" t="n">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="115">
@@ -1926,10 +2270,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C115" t="n">
-        <v>76</v>
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="116">
@@ -1939,10 +2286,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C116" t="n">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="117">
@@ -1952,10 +2302,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C117" t="n">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="118">
@@ -1965,10 +2318,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C118" t="n">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="119">
@@ -1978,10 +2334,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C119" t="n">
-        <v>114</v>
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="120">
@@ -1991,10 +2350,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C120" t="n">
-        <v>165</v>
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="121">
@@ -2004,10 +2366,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C121" t="n">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="122">
@@ -2017,10 +2382,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C122" t="n">
-        <v>172</v>
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="123">
@@ -2030,10 +2398,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C123" t="n">
-        <v>226</v>
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="124">
@@ -2043,10 +2414,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C124" t="n">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="125">
@@ -2056,10 +2430,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C125" t="n">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="126">
@@ -2069,10 +2446,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C126" t="n">
-        <v>105</v>
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="127">
@@ -2082,10 +2462,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C127" t="n">
-        <v>85</v>
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="128">
@@ -2095,10 +2478,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C128" t="n">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="129">
@@ -2108,10 +2494,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C129" t="n">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="130">
@@ -2121,10 +2510,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C130" t="n">
-        <v>143</v>
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="131">
@@ -2134,10 +2526,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C131" t="n">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="132">
@@ -2147,10 +2542,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C132" t="n">
-        <v>103</v>
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="133">
@@ -2160,10 +2558,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C133" t="n">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="134">
@@ -2173,10 +2574,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C134" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="135">
@@ -2186,10 +2590,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C135" t="n">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="136">
@@ -2199,10 +2606,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C136" t="n">
-        <v>295</v>
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="137">
@@ -2212,10 +2622,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C137" t="n">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="138">
@@ -2225,10 +2638,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="139">
@@ -2238,10 +2654,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="140">
@@ -2251,10 +2670,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="C140" t="n">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="141">
@@ -2264,10 +2686,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="C141" t="n">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="142">
@@ -2277,10 +2702,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C142" t="n">
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="143">
@@ -2290,10 +2718,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="C143" t="n">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="144">
@@ -2303,10 +2734,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C144" t="n">
-        <v>110</v>
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="145">
@@ -2316,10 +2750,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="C145" t="n">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="146">
@@ -2329,10 +2766,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C146" t="n">
-        <v>81</v>
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="147">
@@ -2342,10 +2782,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C147" t="n">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="148">
@@ -2355,10 +2798,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C148" t="n">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="149">
@@ -2368,10 +2814,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C149" t="n">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="150">
@@ -2381,10 +2830,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C150" t="n">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="151">
@@ -2394,10 +2846,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C151" t="n">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="152">
@@ -2407,9 +2862,12 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="n">
         <v>16</v>
       </c>
     </row>
@@ -2420,10 +2878,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C153" t="n">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="154">
@@ -2433,426 +2894,525 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C154" t="n">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="D155" t="n">
+        <v>616</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>76</v>
+        <v>4</v>
+      </c>
+      <c r="D156" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C157" t="n">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="D157" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B158" t="n">
+        <v>3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>4</v>
+      </c>
+      <c r="D158" t="n">
         <v>12</v>
-      </c>
-      <c r="C158" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C159" t="n">
-        <v>65</v>
+        <v>4</v>
+      </c>
+      <c r="D159" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C160" t="n">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="D160" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C161" t="n">
-        <v>49</v>
+        <v>4</v>
+      </c>
+      <c r="D161" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C162" t="n">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="D162" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C163" t="n">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="D163" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C164" t="n">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="D164" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C165" t="n">
-        <v>41</v>
+        <v>4</v>
+      </c>
+      <c r="D165" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C166" t="n">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="D166" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C167" t="n">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="D167" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C170" t="n">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C171" t="n">
-        <v>51</v>
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C172" t="n">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C173" t="n">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C174" t="n">
-        <v>68</v>
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C175" t="n">
-        <v>158</v>
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="n">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="n">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C178" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C179" t="n">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C180" t="n">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C181" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C182" t="n">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C183" t="n">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C184" t="n">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C185" t="n">
-        <v>124</v>
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C186" t="n">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="187">
@@ -2862,10 +3422,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C187" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="188">
@@ -2875,10 +3438,13 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C188" t="n">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="189">
@@ -2888,10 +3454,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C189" t="n">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="190">
@@ -2901,10 +3470,13 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C190" t="n">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="191">
@@ -2914,10 +3486,13 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C191" t="n">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="192">
@@ -2927,10 +3502,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C192" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="193">
@@ -2940,10 +3518,13 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C193" t="n">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="194">
@@ -2953,10 +3534,13 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C194" t="n">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="195">
@@ -2966,10 +3550,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C195" t="n">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="196">
@@ -2979,387 +3566,477 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C196" t="n">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C200" t="n">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>921</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C201" t="n">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1696</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C202" t="n">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C203" t="n">
-        <v>55</v>
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C204" t="n">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C205" t="n">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>568</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C206" t="n">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C207" t="n">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C208" t="n">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C209" t="n">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C210" t="n">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C211" t="n">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C212" t="n">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>436</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C213" t="n">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D213" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C214" t="n">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="D214" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C215" t="n">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C216" t="n">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="D216" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C217" t="n">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="D217" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C218" t="n">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C219" t="n">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="D219" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C220" t="n">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="D220" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C221" t="n">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="D221" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C222" t="n">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="D222" t="n">
+        <v>617</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_09</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C223" t="n">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="D223" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_10</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C224" t="n">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="D224" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_10</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C225" t="n">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="D225" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="226">
@@ -3369,10 +4046,13 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C226" t="n">
-        <v>1130</v>
+        <v>0</v>
+      </c>
+      <c r="D226" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="227">
@@ -3382,10 +4062,13 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C227" t="n">
-        <v>181</v>
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="228">
@@ -3395,10 +4078,13 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C228" t="n">
-        <v>2655</v>
+        <v>0</v>
+      </c>
+      <c r="D228" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="229">
@@ -3408,10 +4094,13 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C229" t="n">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="D229" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="230">
@@ -3421,10 +4110,13 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C230" t="n">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="D230" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="231">
@@ -3434,10 +4126,13 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C231" t="n">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="D231" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="232">
@@ -3447,10 +4142,13 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C232" t="n">
-        <v>130</v>
+        <v>0</v>
+      </c>
+      <c r="D232" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="233">
@@ -3460,10 +4158,13 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C233" t="n">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="D233" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="234">
@@ -3473,10 +4174,13 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C234" t="n">
-        <v>101</v>
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="235">
@@ -3486,10 +4190,13 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C235" t="n">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="D235" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="236">
@@ -3499,10 +4206,13 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C236" t="n">
-        <v>363</v>
+        <v>0</v>
+      </c>
+      <c r="D236" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="237">
@@ -3512,10 +4222,13 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C237" t="n">
-        <v>66</v>
+        <v>0</v>
+      </c>
+      <c r="D237" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="238">
@@ -3525,10 +4238,13 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C238" t="n">
-        <v>516</v>
+        <v>0</v>
+      </c>
+      <c r="D238" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="239">
@@ -3538,10 +4254,13 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C239" t="n">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="D239" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="240">
@@ -3551,10 +4270,13 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C240" t="n">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="D240" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="241">
@@ -3564,10 +4286,13 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C241" t="n">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="D241" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="242">
@@ -3577,10 +4302,13 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C242" t="n">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="D242" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="243">
@@ -3590,10 +4318,13 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C243" t="n">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="D243" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="244">
@@ -3603,10 +4334,13 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C244" t="n">
-        <v>844</v>
+        <v>0</v>
+      </c>
+      <c r="D244" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="245">
@@ -3616,10 +4350,13 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C245" t="n">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="D245" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="246">
@@ -3629,10 +4366,13 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C246" t="n">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="D246" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="247">
@@ -3642,10 +4382,13 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C247" t="n">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="248">
@@ -3655,10 +4398,13 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C248" t="n">
-        <v>88</v>
+        <v>0</v>
+      </c>
+      <c r="D248" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="249">
@@ -3668,10 +4414,13 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C249" t="n">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="D249" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="250">
@@ -3681,10 +4430,13 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C250" t="n">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="D250" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="251">
@@ -3694,10 +4446,13 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C251" t="n">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="D251" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="252">
@@ -3707,10 +4462,13 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C252" t="n">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="D252" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="253">
@@ -3720,10 +4478,13 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C253" t="n">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="D253" t="n">
+        <v>331</v>
       </c>
     </row>
     <row r="254">
@@ -3733,10 +4494,13 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C254" t="n">
-        <v>317</v>
+        <v>0</v>
+      </c>
+      <c r="D254" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="255">
@@ -3746,10 +4510,13 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C255" t="n">
-        <v>89</v>
+        <v>0</v>
+      </c>
+      <c r="D255" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="256">
@@ -3759,10 +4526,13 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C256" t="n">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="D256" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="257">
@@ -3772,10 +4542,13 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C257" t="n">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="D257" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="258">
@@ -3785,10 +4558,13 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C258" t="n">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="D258" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="259">
@@ -3798,10 +4574,13 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C259" t="n">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="D259" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="260">
@@ -3811,10 +4590,13 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C260" t="n">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="D260" t="n">
+        <v>569</v>
       </c>
     </row>
     <row r="261">
@@ -3824,10 +4606,13 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C261" t="n">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="D261" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="262">
@@ -3837,10 +4622,13 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C262" t="n">
-        <v>93</v>
+        <v>0</v>
+      </c>
+      <c r="D262" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="263">
@@ -3850,10 +4638,13 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C263" t="n">
-        <v>133</v>
+        <v>0</v>
+      </c>
+      <c r="D263" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="264">
@@ -3863,10 +4654,13 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C264" t="n">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="D264" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="265">
@@ -3876,10 +4670,13 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C265" t="n">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="D265" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="266">
@@ -3889,9 +4686,12 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C266" t="n">
+        <v>0</v>
+      </c>
+      <c r="D266" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3902,10 +4702,13 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C267" t="n">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="D267" t="n">
+        <v>262</v>
       </c>
     </row>
     <row r="268">
@@ -3915,10 +4718,13 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C268" t="n">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="D268" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="269">
@@ -3928,10 +4734,13 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C269" t="n">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="D269" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="270">
@@ -3941,10 +4750,13 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C270" t="n">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1338</v>
       </c>
     </row>
     <row r="271">
@@ -3954,10 +4766,13 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C271" t="n">
-        <v>137</v>
+        <v>0</v>
+      </c>
+      <c r="D271" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="272">
@@ -3967,10 +4782,13 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C272" t="n">
-        <v>51</v>
+        <v>0</v>
+      </c>
+      <c r="D272" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="273">
@@ -3980,10 +4798,13 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C273" t="n">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="D273" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="274">
@@ -3993,10 +4814,13 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C274" t="n">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="D274" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="275">
@@ -4006,10 +4830,13 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C275" t="n">
-        <v>59</v>
+        <v>0</v>
+      </c>
+      <c r="D275" t="n">
+        <v>490</v>
       </c>
     </row>
     <row r="276">
@@ -4019,10 +4846,13 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C276" t="n">
-        <v>182</v>
+        <v>0</v>
+      </c>
+      <c r="D276" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="277">
@@ -4032,10 +4862,13 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C277" t="n">
-        <v>1752</v>
+        <v>0</v>
+      </c>
+      <c r="D277" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="278">
@@ -4045,10 +4878,13 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C278" t="n">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="D278" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="279">
@@ -4058,10 +4894,13 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C279" t="n">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="D279" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="280">
@@ -4071,10 +4910,13 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C280" t="n">
-        <v>93</v>
+        <v>0</v>
+      </c>
+      <c r="D280" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="281">
@@ -4084,10 +4926,13 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C281" t="n">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D281" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="282">
@@ -4097,10 +4942,13 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C282" t="n">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="D282" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="283">
@@ -4110,10 +4958,13 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C283" t="n">
-        <v>97</v>
+        <v>0</v>
+      </c>
+      <c r="D283" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="284">
@@ -4123,10 +4974,13 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C284" t="n">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="D284" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="285">
@@ -4136,10 +4990,13 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C285" t="n">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="D285" t="n">
+        <v>174</v>
       </c>
     </row>
     <row r="286">
@@ -4149,10 +5006,13 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C286" t="n">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="D286" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="287">
@@ -4162,10 +5022,13 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C287" t="n">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="D287" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="288">
@@ -4175,10 +5038,13 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C288" t="n">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="D288" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="289">
@@ -4188,10 +5054,13 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C289" t="n">
-        <v>81</v>
+        <v>0</v>
+      </c>
+      <c r="D289" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="290">
@@ -4201,10 +5070,13 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="C290" t="n">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="D290" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="291">
@@ -4214,10 +5086,13 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C291" t="n">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="D291" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="292">
@@ -4227,10 +5102,13 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C292" t="n">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="D292" t="n">
+        <v>431</v>
       </c>
     </row>
     <row r="293">
@@ -4240,10 +5118,13 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C293" t="n">
-        <v>2496</v>
+        <v>0</v>
+      </c>
+      <c r="D293" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="294">
@@ -4253,10 +5134,13 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C294" t="n">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="D294" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="295">
@@ -4266,10 +5150,13 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C295" t="n">
-        <v>153</v>
+        <v>0</v>
+      </c>
+      <c r="D295" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="296">
@@ -4279,10 +5166,13 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C296" t="n">
-        <v>52</v>
+        <v>0</v>
+      </c>
+      <c r="D296" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="297">
@@ -4292,10 +5182,13 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C297" t="n">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="D297" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="298">
@@ -4305,10 +5198,13 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C298" t="n">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="D298" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="299">
@@ -4318,10 +5214,13 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C299" t="n">
-        <v>47</v>
+        <v>0</v>
+      </c>
+      <c r="D299" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="300">
@@ -4331,10 +5230,13 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C300" t="n">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="D300" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="301">
@@ -4344,1466 +5246,637 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C301" t="n">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="D301" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="D302" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="C303" t="n">
-        <v>106</v>
+        <v>1</v>
+      </c>
+      <c r="D303" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="C304" t="n">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="D304" t="n">
+        <v>184</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="C305" t="n">
-        <v>197</v>
+        <v>1</v>
+      </c>
+      <c r="D305" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="C306" t="n">
-        <v>267</v>
+        <v>1</v>
+      </c>
+      <c r="D306" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>138</v>
+        <v>1</v>
+      </c>
+      <c r="D307" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="D308" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="C309" t="n">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="D309" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="C310" t="n">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="D310" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="C311" t="n">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="D311" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C312" t="n">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="D312" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="C313" t="n">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="D313" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="C314" t="n">
-        <v>555</v>
+        <v>1</v>
+      </c>
+      <c r="D314" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="C315" t="n">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="D315" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C316" t="n">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D316" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="C317" t="n">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="D317" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="C318" t="n">
-        <v>187</v>
+        <v>1</v>
+      </c>
+      <c r="D318" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="C319" t="n">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="D319" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="C320" t="n">
-        <v>163</v>
+        <v>1</v>
+      </c>
+      <c r="D320" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="C321" t="n">
-        <v>225</v>
+        <v>1</v>
+      </c>
+      <c r="D321" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="C322" t="n">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="D322" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C323" t="n">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="D323" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C324" t="n">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="D324" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C325" t="n">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="D325" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C326" t="n">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="D326" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C327" t="n">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="D327" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C328" t="n">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="D328" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C329" t="n">
-        <v>81</v>
+        <v>1</v>
+      </c>
+      <c r="D329" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C330" t="n">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="D330" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C331" t="n">
-        <v>184</v>
+        <v>1</v>
+      </c>
+      <c r="D331" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C332" t="n">
-        <v>99</v>
+        <v>1</v>
+      </c>
+      <c r="D332" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C333" t="n">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="D333" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C334" t="n">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="D334" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C335" t="n">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="D335" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C336" t="n">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="D336" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C337" t="n">
-        <v>238</v>
+        <v>1</v>
+      </c>
+      <c r="D337" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C338" t="n">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="D338" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="D339" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C340" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B341" t="n">
-        <v>18</v>
-      </c>
-      <c r="C341" t="n">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B342" t="n">
-        <v>19</v>
-      </c>
-      <c r="C342" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B343" t="n">
-        <v>20</v>
-      </c>
-      <c r="C343" t="n">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B344" t="n">
-        <v>21</v>
-      </c>
-      <c r="C344" t="n">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B345" t="n">
-        <v>22</v>
-      </c>
-      <c r="C345" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B346" t="n">
-        <v>23</v>
-      </c>
-      <c r="C346" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B347" t="n">
-        <v>24</v>
-      </c>
-      <c r="C347" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B348" t="n">
-        <v>25</v>
-      </c>
-      <c r="C348" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B349" t="n">
-        <v>26</v>
-      </c>
-      <c r="C349" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B350" t="n">
-        <v>27</v>
-      </c>
-      <c r="C350" t="n">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B351" t="n">
-        <v>28</v>
-      </c>
-      <c r="C351" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B352" t="n">
-        <v>29</v>
-      </c>
-      <c r="C352" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B353" t="n">
-        <v>30</v>
-      </c>
-      <c r="C353" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B354" t="n">
-        <v>31</v>
-      </c>
-      <c r="C354" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B355" t="n">
-        <v>32</v>
-      </c>
-      <c r="C355" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B356" t="n">
-        <v>33</v>
-      </c>
-      <c r="C356" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B357" t="n">
-        <v>34</v>
-      </c>
-      <c r="C357" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B358" t="n">
-        <v>35</v>
-      </c>
-      <c r="C358" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B359" t="n">
-        <v>36</v>
-      </c>
-      <c r="C359" t="n">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B360" t="n">
-        <v>37</v>
-      </c>
-      <c r="C360" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B361" t="n">
-        <v>38</v>
-      </c>
-      <c r="C361" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_02</t>
-        </is>
-      </c>
-      <c r="B362" t="n">
-        <v>39</v>
-      </c>
-      <c r="C362" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>1K_PFF_SCR_08</t>
-        </is>
-      </c>
-      <c r="B363" t="n">
-        <v>0</v>
-      </c>
-      <c r="C363" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_01</t>
-        </is>
-      </c>
-      <c r="B364" t="n">
-        <v>0</v>
-      </c>
-      <c r="C364" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_01</t>
-        </is>
-      </c>
-      <c r="B365" t="n">
-        <v>1</v>
-      </c>
-      <c r="C365" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_01</t>
-        </is>
-      </c>
-      <c r="B366" t="n">
-        <v>2</v>
-      </c>
-      <c r="C366" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_01</t>
-        </is>
-      </c>
-      <c r="B367" t="n">
-        <v>3</v>
-      </c>
-      <c r="C367" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_01</t>
-        </is>
-      </c>
-      <c r="B368" t="n">
-        <v>4</v>
-      </c>
-      <c r="C368" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_01</t>
-        </is>
-      </c>
-      <c r="B369" t="n">
-        <v>5</v>
-      </c>
-      <c r="C369" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_01</t>
-        </is>
-      </c>
-      <c r="B370" t="n">
-        <v>6</v>
-      </c>
-      <c r="C370" t="n">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_01</t>
-        </is>
-      </c>
-      <c r="B371" t="n">
-        <v>7</v>
-      </c>
-      <c r="C371" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_01</t>
-        </is>
-      </c>
-      <c r="B372" t="n">
-        <v>8</v>
-      </c>
-      <c r="C372" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_01</t>
-        </is>
-      </c>
-      <c r="B373" t="n">
-        <v>9</v>
-      </c>
-      <c r="C373" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B374" t="n">
-        <v>0</v>
-      </c>
-      <c r="C374" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B375" t="n">
-        <v>1</v>
-      </c>
-      <c r="C375" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B376" t="n">
-        <v>2</v>
-      </c>
-      <c r="C376" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B377" t="n">
-        <v>3</v>
-      </c>
-      <c r="C377" t="n">
+        <v>0</v>
+      </c>
+      <c r="D340" t="n">
         <v>14</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B378" t="n">
-        <v>4</v>
-      </c>
-      <c r="C378" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B379" t="n">
-        <v>5</v>
-      </c>
-      <c r="C379" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B380" t="n">
-        <v>6</v>
-      </c>
-      <c r="C380" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B381" t="n">
-        <v>7</v>
-      </c>
-      <c r="C381" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B382" t="n">
-        <v>8</v>
-      </c>
-      <c r="C382" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B383" t="n">
-        <v>9</v>
-      </c>
-      <c r="C383" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B384" t="n">
-        <v>10</v>
-      </c>
-      <c r="C384" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B385" t="n">
-        <v>11</v>
-      </c>
-      <c r="C385" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B386" t="n">
-        <v>12</v>
-      </c>
-      <c r="C386" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B387" t="n">
-        <v>13</v>
-      </c>
-      <c r="C387" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B388" t="n">
-        <v>14</v>
-      </c>
-      <c r="C388" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B389" t="n">
-        <v>15</v>
-      </c>
-      <c r="C389" t="n">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B390" t="n">
-        <v>16</v>
-      </c>
-      <c r="C390" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B391" t="n">
-        <v>17</v>
-      </c>
-      <c r="C391" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B392" t="n">
-        <v>18</v>
-      </c>
-      <c r="C392" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B393" t="n">
-        <v>19</v>
-      </c>
-      <c r="C393" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B394" t="n">
-        <v>20</v>
-      </c>
-      <c r="C394" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B395" t="n">
-        <v>21</v>
-      </c>
-      <c r="C395" t="n">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B396" t="n">
-        <v>22</v>
-      </c>
-      <c r="C396" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B397" t="n">
-        <v>23</v>
-      </c>
-      <c r="C397" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B398" t="n">
-        <v>24</v>
-      </c>
-      <c r="C398" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B399" t="n">
-        <v>25</v>
-      </c>
-      <c r="C399" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B400" t="n">
-        <v>26</v>
-      </c>
-      <c r="C400" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B401" t="n">
-        <v>27</v>
-      </c>
-      <c r="C401" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B402" t="n">
-        <v>28</v>
-      </c>
-      <c r="C402" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B403" t="n">
-        <v>29</v>
-      </c>
-      <c r="C403" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B404" t="n">
-        <v>30</v>
-      </c>
-      <c r="C404" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B405" t="n">
-        <v>31</v>
-      </c>
-      <c r="C405" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B406" t="n">
-        <v>32</v>
-      </c>
-      <c r="C406" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B407" t="n">
-        <v>33</v>
-      </c>
-      <c r="C407" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B408" t="n">
-        <v>34</v>
-      </c>
-      <c r="C408" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B409" t="n">
-        <v>35</v>
-      </c>
-      <c r="C409" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B410" t="n">
-        <v>36</v>
-      </c>
-      <c r="C410" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B411" t="n">
-        <v>37</v>
-      </c>
-      <c r="C411" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_08</t>
-        </is>
-      </c>
-      <c r="B412" t="n">
-        <v>0</v>
-      </c>
-      <c r="C412" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_08</t>
-        </is>
-      </c>
-      <c r="B413" t="n">
-        <v>1</v>
-      </c>
-      <c r="C413" t="n">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/PFF_SCR_TAX_ADAM/281024_analysis_by_inclusion_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/281024_analysis_by_inclusion_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D340"/>
+  <dimension ref="A1:D351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>402</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4">
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7">
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>142</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9">
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>34</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12">
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>234</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>34</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15">
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>119</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16">
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>196</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>186</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>37</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>97</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27">
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>50</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -916,23 +916,23 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>101</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_01</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33">
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>934</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>83</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="35">
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -1006,13 +1006,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>79</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
@@ -1092,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
@@ -1108,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43">
@@ -1124,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -1140,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>965</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="45">
@@ -1156,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -1172,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>735</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
@@ -1188,23 +1188,23 @@
         <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>32</v>
+        <v>824</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_03</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49">
@@ -1214,13 +1214,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>174</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" t="n">
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>330</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>25</v>
+        <v>349</v>
       </c>
     </row>
     <row r="55">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57">
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C57" t="n">
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>173</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>22</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59" t="n">
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
@@ -1390,13 +1390,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C62" t="n">
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63" t="n">
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>93</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65">
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
@@ -1486,13 +1486,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>51</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67">
@@ -1502,13 +1502,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C67" t="n">
         <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68">
@@ -1518,29 +1518,29 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C68" t="n">
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_04</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>356</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
@@ -1550,29 +1550,29 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>339</v>
+        <v>393</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>33</v>
+        <v>369</v>
       </c>
     </row>
     <row r="72">
@@ -1582,13 +1582,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
@@ -1598,13 +1598,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>205</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75">
@@ -1630,13 +1630,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -1646,13 +1646,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>29</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
@@ -1678,13 +1678,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80">
@@ -1710,13 +1710,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
@@ -1726,13 +1726,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82">
@@ -1742,13 +1742,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86">
@@ -1806,13 +1806,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
@@ -1822,13 +1822,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
@@ -1838,13 +1838,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
@@ -1854,13 +1854,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90">
@@ -1870,13 +1870,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91">
@@ -1886,13 +1886,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>92</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
@@ -1902,13 +1902,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>139</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
@@ -1918,13 +1918,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>340</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94">
@@ -1934,13 +1934,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>34</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95">
@@ -1950,13 +1950,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>341</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
@@ -1982,13 +1982,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>24</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98">
@@ -1998,13 +1998,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>141</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99">
@@ -2014,13 +2014,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100">
@@ -2030,13 +2030,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
@@ -2046,13 +2046,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104">
@@ -2094,13 +2094,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106">
@@ -2126,13 +2126,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107">
@@ -2142,13 +2142,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108">
@@ -2158,13 +2158,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109">
@@ -2174,13 +2174,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110">
@@ -2190,13 +2190,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="111">
@@ -2206,13 +2206,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112">
@@ -2222,13 +2222,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>139</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114">
@@ -2254,13 +2254,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>198</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>150</v>
+        <v>187</v>
       </c>
     </row>
     <row r="116">
@@ -2286,13 +2286,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>20</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117">
@@ -2302,13 +2302,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118">
@@ -2318,13 +2318,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119">
@@ -2334,13 +2334,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="120">
@@ -2350,13 +2350,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121">
@@ -2366,13 +2366,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122">
@@ -2382,13 +2382,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="123">
@@ -2398,13 +2398,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124">
@@ -2414,13 +2414,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125">
@@ -2430,13 +2430,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126">
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127">
@@ -2462,13 +2462,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>26</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128">
@@ -2478,13 +2478,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>136</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129">
@@ -2494,13 +2494,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130">
@@ -2510,13 +2510,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131">
@@ -2526,13 +2526,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132">
@@ -2542,13 +2542,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133">
@@ -2558,13 +2558,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134">
@@ -2574,13 +2574,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135">
@@ -2590,13 +2590,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>46</v>
+        <v>89</v>
       </c>
     </row>
     <row r="136">
@@ -2606,13 +2606,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137">
@@ -2622,13 +2622,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="138">
@@ -2638,13 +2638,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139">
@@ -2654,13 +2654,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140">
@@ -2670,13 +2670,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141">
@@ -2686,13 +2686,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142">
@@ -2702,13 +2702,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143">
@@ -2718,13 +2718,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144">
@@ -2734,13 +2734,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="145">
@@ -2750,13 +2750,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="146">
@@ -2766,13 +2766,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148">
@@ -2798,13 +2798,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="149">
@@ -2814,13 +2814,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="150">
@@ -2830,13 +2830,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151">
@@ -2846,13 +2846,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152">
@@ -2862,13 +2862,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153">
@@ -2878,29 +2878,29 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D154" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155">
@@ -2910,13 +2910,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
         <v>4</v>
       </c>
       <c r="D155" t="n">
-        <v>616</v>
+        <v>704</v>
       </c>
     </row>
     <row r="156">
@@ -2926,13 +2926,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C156" t="n">
         <v>4</v>
       </c>
       <c r="D156" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="157">
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C157" t="n">
         <v>4</v>
       </c>
       <c r="D157" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158">
@@ -2958,13 +2958,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C158" t="n">
         <v>4</v>
       </c>
       <c r="D158" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159">
@@ -2974,13 +2974,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C159" t="n">
         <v>4</v>
       </c>
       <c r="D159" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="160">
@@ -2990,13 +2990,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" t="n">
         <v>4</v>
       </c>
       <c r="D160" t="n">
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row r="161">
@@ -3006,13 +3006,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C161" t="n">
         <v>4</v>
       </c>
       <c r="D161" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162">
@@ -3022,13 +3022,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="n">
         <v>4</v>
       </c>
       <c r="D162" t="n">
-        <v>25</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163">
@@ -3038,13 +3038,13 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="n">
         <v>4</v>
       </c>
       <c r="D163" t="n">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="164">
@@ -3054,13 +3054,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C164" t="n">
         <v>4</v>
       </c>
       <c r="D164" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165">
@@ -3070,13 +3070,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C165" t="n">
         <v>4</v>
       </c>
       <c r="D165" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166">
@@ -3086,13 +3086,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C166" t="n">
         <v>4</v>
       </c>
       <c r="D166" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="167">
@@ -3102,109 +3102,109 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C167" t="n">
         <v>4</v>
       </c>
       <c r="D167" t="n">
-        <v>113</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D168" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D169" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D170" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D171" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B172" t="n">
+        <v>18</v>
+      </c>
+      <c r="C172" t="n">
         <v>4</v>
       </c>
-      <c r="C172" t="n">
-        <v>0</v>
-      </c>
       <c r="D172" t="n">
-        <v>12</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D173" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174">
@@ -3214,13 +3214,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175">
@@ -3230,13 +3230,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="176">
@@ -3246,13 +3246,13 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="177">
@@ -3262,13 +3262,13 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179">
@@ -3294,13 +3294,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180">
@@ -3310,13 +3310,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="181">
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="183">
@@ -3358,13 +3358,13 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="184">
@@ -3374,13 +3374,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="185">
@@ -3390,13 +3390,13 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="186">
@@ -3406,13 +3406,13 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="187">
@@ -3422,13 +3422,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="188">
@@ -3438,13 +3438,13 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190">
@@ -3470,13 +3470,13 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191">
@@ -3486,13 +3486,13 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193">
@@ -3518,13 +3518,13 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194">
@@ -3534,13 +3534,13 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195">
@@ -3550,13 +3550,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="196">
@@ -3566,141 +3566,141 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C196" t="n">
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_09</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
       </c>
       <c r="D199" t="n">
-        <v>162</v>
+        <v>37</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>921</v>
+        <v>29</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>1696</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
       </c>
       <c r="D202" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>114</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205">
@@ -3710,13 +3710,13 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>568</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="206">
@@ -3726,13 +3726,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
       </c>
       <c r="D206" t="n">
-        <v>11</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="207">
@@ -3742,13 +3742,13 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="208">
@@ -3758,13 +3758,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>87</v>
+        <v>29</v>
       </c>
     </row>
     <row r="209">
@@ -3774,13 +3774,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>94</v>
+        <v>47</v>
       </c>
     </row>
     <row r="210">
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
       </c>
       <c r="D210" t="n">
-        <v>51</v>
+        <v>135</v>
       </c>
     </row>
     <row r="211">
@@ -3806,13 +3806,13 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>176</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212">
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>436</v>
+        <v>486</v>
       </c>
     </row>
     <row r="213">
@@ -3838,13 +3838,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="214">
@@ -3854,13 +3854,13 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="215">
@@ -3870,13 +3870,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>24</v>
+        <v>529</v>
       </c>
     </row>
     <row r="216">
@@ -3886,13 +3886,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217">
@@ -3902,13 +3902,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
       </c>
       <c r="D217" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218">
@@ -3918,13 +3918,13 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="219">
@@ -3934,13 +3934,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="220">
@@ -3950,13 +3950,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="221">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="222">
@@ -3982,13 +3982,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>617</v>
+        <v>891</v>
       </c>
     </row>
     <row r="223">
@@ -3998,13 +3998,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="224">
@@ -4014,13 +4014,13 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="225">
@@ -4030,13 +4030,13 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="226">
@@ -4046,13 +4046,13 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>13</v>
+        <v>137</v>
       </c>
     </row>
     <row r="227">
@@ -4062,13 +4062,13 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>238</v>
+        <v>83</v>
       </c>
     </row>
     <row r="228">
@@ -4078,13 +4078,13 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="229">
@@ -4094,13 +4094,13 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230">
@@ -4110,13 +4110,13 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231">
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
       </c>
       <c r="D231" t="n">
-        <v>35</v>
+        <v>338</v>
       </c>
     </row>
     <row r="232">
@@ -4142,13 +4142,13 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
       </c>
       <c r="D232" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
     </row>
     <row r="233">
@@ -4158,13 +4158,13 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
       </c>
       <c r="D233" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="234">
@@ -4174,13 +4174,13 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
       </c>
       <c r="D234" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="235">
@@ -4190,13 +4190,13 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="236">
@@ -4206,13 +4206,13 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
       </c>
       <c r="D236" t="n">
-        <v>76</v>
+        <v>21</v>
       </c>
     </row>
     <row r="237">
@@ -4222,13 +4222,13 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>121</v>
+        <v>66</v>
       </c>
     </row>
     <row r="238">
@@ -4238,13 +4238,13 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="239">
@@ -4254,13 +4254,13 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
       </c>
       <c r="D239" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="240">
@@ -4270,13 +4270,13 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
       </c>
       <c r="D240" t="n">
-        <v>62</v>
+        <v>136</v>
       </c>
     </row>
     <row r="241">
@@ -4286,13 +4286,13 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="242">
@@ -4302,13 +4302,13 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
       </c>
       <c r="D242" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="243">
@@ -4318,13 +4318,13 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244">
@@ -4334,13 +4334,13 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="245">
@@ -4350,13 +4350,13 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
       </c>
       <c r="D245" t="n">
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246">
@@ -4366,13 +4366,13 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
       </c>
       <c r="D246" t="n">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="247">
@@ -4382,13 +4382,13 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="248">
@@ -4398,13 +4398,13 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
       </c>
       <c r="D248" t="n">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="249">
@@ -4414,13 +4414,13 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
       </c>
       <c r="D249" t="n">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="250">
@@ -4430,13 +4430,13 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="251">
@@ -4446,13 +4446,13 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
       </c>
       <c r="D251" t="n">
-        <v>205</v>
+        <v>24</v>
       </c>
     </row>
     <row r="252">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
       </c>
       <c r="D252" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="253">
@@ -4478,13 +4478,13 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
       </c>
       <c r="D253" t="n">
-        <v>331</v>
+        <v>195</v>
       </c>
     </row>
     <row r="254">
@@ -4494,13 +4494,13 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>85</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="255">
@@ -4510,13 +4510,13 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
       </c>
       <c r="D255" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="256">
@@ -4526,13 +4526,13 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
       </c>
       <c r="D256" t="n">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="257">
@@ -4542,13 +4542,13 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
       </c>
       <c r="D257" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
     </row>
     <row r="258">
@@ -4558,13 +4558,13 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
       </c>
       <c r="D258" t="n">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="259">
@@ -4574,13 +4574,13 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
       </c>
       <c r="D259" t="n">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260">
@@ -4590,13 +4590,13 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
       </c>
       <c r="D260" t="n">
-        <v>569</v>
+        <v>16</v>
       </c>
     </row>
     <row r="261">
@@ -4606,13 +4606,13 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
       </c>
       <c r="D261" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="262">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
       </c>
       <c r="D262" t="n">
-        <v>44</v>
+        <v>99</v>
       </c>
     </row>
     <row r="263">
@@ -4638,13 +4638,13 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
       </c>
       <c r="D263" t="n">
-        <v>65</v>
+        <v>94</v>
       </c>
     </row>
     <row r="264">
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -4670,13 +4670,13 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
       </c>
       <c r="D265" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="266">
@@ -4686,13 +4686,13 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
       </c>
       <c r="D266" t="n">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="267">
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
       </c>
       <c r="D267" t="n">
-        <v>262</v>
+        <v>83</v>
       </c>
     </row>
     <row r="268">
@@ -4718,13 +4718,13 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
       </c>
       <c r="D268" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="269">
@@ -4734,13 +4734,13 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
       </c>
       <c r="D269" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="270">
@@ -4750,13 +4750,13 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
       </c>
       <c r="D270" t="n">
-        <v>1338</v>
+        <v>70</v>
       </c>
     </row>
     <row r="271">
@@ -4766,13 +4766,13 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
       </c>
       <c r="D271" t="n">
-        <v>42</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="272">
@@ -4782,13 +4782,13 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
       </c>
       <c r="D272" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="273">
@@ -4798,13 +4798,13 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
       </c>
       <c r="D273" t="n">
-        <v>29</v>
+        <v>164</v>
       </c>
     </row>
     <row r="274">
@@ -4814,13 +4814,13 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
       </c>
       <c r="D274" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="275">
@@ -4830,13 +4830,13 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
       </c>
       <c r="D275" t="n">
-        <v>490</v>
+        <v>27</v>
       </c>
     </row>
     <row r="276">
@@ -4846,13 +4846,13 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
       </c>
       <c r="D276" t="n">
-        <v>22</v>
+        <v>106</v>
       </c>
     </row>
     <row r="277">
@@ -4862,13 +4862,13 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
       </c>
       <c r="D277" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="278">
@@ -4878,13 +4878,13 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
       </c>
       <c r="D278" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="279">
@@ -4894,13 +4894,13 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
       </c>
       <c r="D279" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="280">
@@ -4910,13 +4910,13 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
       </c>
       <c r="D280" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="281">
@@ -4926,13 +4926,13 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
       </c>
       <c r="D281" t="n">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="282">
@@ -4942,13 +4942,13 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
       </c>
       <c r="D282" t="n">
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="283">
@@ -4958,13 +4958,13 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
       </c>
       <c r="D283" t="n">
-        <v>258</v>
+        <v>286</v>
       </c>
     </row>
     <row r="284">
@@ -4974,13 +4974,13 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
       </c>
       <c r="D284" t="n">
-        <v>13</v>
+        <v>141</v>
       </c>
     </row>
     <row r="285">
@@ -4990,13 +4990,13 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
       </c>
       <c r="D285" t="n">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="286">
@@ -5006,13 +5006,13 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
       </c>
       <c r="D286" t="n">
-        <v>221</v>
+        <v>59</v>
       </c>
     </row>
     <row r="287">
@@ -5022,13 +5022,13 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
       </c>
       <c r="D287" t="n">
-        <v>122</v>
+        <v>44</v>
       </c>
     </row>
     <row r="288">
@@ -5038,13 +5038,13 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
       </c>
       <c r="D288" t="n">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="289">
@@ -5054,13 +5054,13 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
       </c>
       <c r="D289" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="290">
@@ -5070,13 +5070,13 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
       </c>
       <c r="D290" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="291">
@@ -5086,13 +5086,13 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
       </c>
       <c r="D291" t="n">
-        <v>47</v>
+        <v>602</v>
       </c>
     </row>
     <row r="292">
@@ -5102,13 +5102,13 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
       </c>
       <c r="D292" t="n">
-        <v>431</v>
+        <v>96</v>
       </c>
     </row>
     <row r="293">
@@ -5118,7 +5118,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
@@ -5134,13 +5134,13 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
       </c>
       <c r="D294" t="n">
-        <v>17</v>
+        <v>194</v>
       </c>
     </row>
     <row r="295">
@@ -5150,13 +5150,13 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
       </c>
       <c r="D295" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="296">
@@ -5166,13 +5166,13 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
       </c>
       <c r="D296" t="n">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="297">
@@ -5182,13 +5182,13 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
       </c>
       <c r="D297" t="n">
-        <v>66</v>
+        <v>234</v>
       </c>
     </row>
     <row r="298">
@@ -5198,13 +5198,13 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
       </c>
       <c r="D298" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="299">
@@ -5214,13 +5214,13 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D299" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="300">
@@ -5230,13 +5230,13 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D300" t="n">
-        <v>192</v>
+        <v>16</v>
       </c>
     </row>
     <row r="301">
@@ -5246,397 +5246,397 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D301" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C302" t="n">
         <v>1</v>
       </c>
       <c r="D302" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C303" t="n">
         <v>1</v>
       </c>
       <c r="D303" t="n">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C304" t="n">
         <v>1</v>
       </c>
       <c r="D304" t="n">
-        <v>184</v>
+        <v>12</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
       </c>
       <c r="D305" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C306" t="n">
         <v>1</v>
       </c>
       <c r="D306" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C307" t="n">
         <v>1</v>
       </c>
       <c r="D307" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C308" t="n">
         <v>1</v>
       </c>
       <c r="D308" t="n">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C309" t="n">
         <v>1</v>
       </c>
       <c r="D309" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C310" t="n">
         <v>1</v>
       </c>
       <c r="D310" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D311" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D312" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D313" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D314" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D315" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D316" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D317" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D318" t="n">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B319" t="n">
+        <v>8</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0</v>
+      </c>
+      <c r="D319" t="n">
         <v>12</v>
-      </c>
-      <c r="C319" t="n">
-        <v>1</v>
-      </c>
-      <c r="D319" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_04</t>
         </is>
       </c>
       <c r="B320" t="n">
+        <v>0</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0</v>
+      </c>
+      <c r="D320" t="n">
         <v>13</v>
-      </c>
-      <c r="C320" t="n">
-        <v>1</v>
-      </c>
-      <c r="D320" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
       </c>
       <c r="D321" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C322" t="n">
         <v>1</v>
       </c>
       <c r="D322" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C323" t="n">
         <v>1</v>
       </c>
       <c r="D323" t="n">
-        <v>36</v>
+        <v>188</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C324" t="n">
         <v>1</v>
       </c>
       <c r="D324" t="n">
-        <v>236</v>
+        <v>30</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C325" t="n">
         <v>1</v>
       </c>
       <c r="D325" t="n">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="326">
@@ -5646,13 +5646,13 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C326" t="n">
         <v>1</v>
       </c>
       <c r="D326" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="327">
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C327" t="n">
         <v>1</v>
       </c>
       <c r="D327" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="328">
@@ -5678,7 +5678,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
@@ -5694,13 +5694,13 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
       </c>
       <c r="D329" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="330">
@@ -5710,13 +5710,13 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C330" t="n">
         <v>1</v>
       </c>
       <c r="D330" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="331">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
       </c>
       <c r="D331" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="332">
@@ -5742,13 +5742,13 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C332" t="n">
         <v>1</v>
       </c>
       <c r="D332" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="333">
@@ -5758,13 +5758,13 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
       </c>
       <c r="D333" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="334">
@@ -5774,13 +5774,13 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
       </c>
       <c r="D334" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="335">
@@ -5790,13 +5790,13 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C335" t="n">
         <v>1</v>
       </c>
       <c r="D335" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="336">
@@ -5806,13 +5806,13 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C336" t="n">
         <v>1</v>
       </c>
       <c r="D336" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="337">
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C337" t="n">
         <v>1</v>
       </c>
       <c r="D337" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="338">
@@ -5838,45 +5838,221 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C338" t="n">
         <v>1</v>
       </c>
       <c r="D338" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_08</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D339" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>14</v>
+      </c>
+      <c r="C340" t="n">
+        <v>1</v>
+      </c>
+      <c r="D340" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>15</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1</v>
+      </c>
+      <c r="D341" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>16</v>
+      </c>
+      <c r="C342" t="n">
+        <v>1</v>
+      </c>
+      <c r="D342" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>17</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1</v>
+      </c>
+      <c r="D343" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>18</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1</v>
+      </c>
+      <c r="D344" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>19</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1</v>
+      </c>
+      <c r="D345" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>20</v>
+      </c>
+      <c r="C346" t="n">
+        <v>1</v>
+      </c>
+      <c r="D346" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>21</v>
+      </c>
+      <c r="C347" t="n">
+        <v>1</v>
+      </c>
+      <c r="D347" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>22</v>
+      </c>
+      <c r="C348" t="n">
+        <v>1</v>
+      </c>
+      <c r="D348" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>23</v>
+      </c>
+      <c r="C349" t="n">
+        <v>1</v>
+      </c>
+      <c r="D349" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
           <t>1K_PFF_TAX1BP1_08</t>
         </is>
       </c>
-      <c r="B340" t="n">
-        <v>1</v>
-      </c>
-      <c r="C340" t="n">
-        <v>0</v>
-      </c>
-      <c r="D340" t="n">
-        <v>14</v>
+      <c r="B350" t="n">
+        <v>0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0</v>
+      </c>
+      <c r="D351" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PFF_SCR_TAX_ADAM/281024_analysis_by_inclusion_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/281024_analysis_by_inclusion_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D351"/>
+  <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9">
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15">
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16">
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>112</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
@@ -900,23 +900,23 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>106</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_01</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>42</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>120</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="34">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1005</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36">
@@ -1006,13 +1006,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>21</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>121</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
@@ -1086,13 +1086,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
         <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43" t="n">
         <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>20</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="44">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>1061</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>38</v>
+        <v>824</v>
       </c>
     </row>
     <row r="47">
@@ -1182,29 +1182,29 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="n">
         <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>824</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_02</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
@@ -1214,13 +1214,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>36</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" t="n">
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>181</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" t="n">
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>349</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="n">
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>12</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>179</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C59" t="n">
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -1390,13 +1390,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" t="n">
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C63" t="n">
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65">
@@ -1470,13 +1470,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>99</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66">
@@ -1486,13 +1486,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>144</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67">
@@ -1502,13 +1502,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C67" t="n">
         <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68">
@@ -1518,61 +1518,61 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C68" t="n">
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_03</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_04</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>393</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_04</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>369</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72">
@@ -1582,13 +1582,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -1598,13 +1598,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>26</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75">
@@ -1630,13 +1630,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76">
@@ -1646,13 +1646,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>176</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
@@ -1678,13 +1678,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -1710,13 +1710,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81">
@@ -1726,13 +1726,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
@@ -1742,13 +1742,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85">
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
@@ -1806,13 +1806,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87">
@@ -1822,13 +1822,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
@@ -1838,13 +1838,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89">
@@ -1854,13 +1854,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
@@ -1870,13 +1870,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91">
@@ -1886,13 +1886,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>26</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92">
@@ -1902,13 +1902,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>15</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
@@ -1918,13 +1918,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
@@ -1934,13 +1934,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>131</v>
+        <v>326</v>
       </c>
     </row>
     <row r="95">
@@ -1950,13 +1950,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>132</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97">
@@ -1982,13 +1982,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>328</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
@@ -1998,13 +1998,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>188</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99">
@@ -2014,13 +2014,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100">
@@ -2030,13 +2030,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101">
@@ -2046,13 +2046,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>120</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104">
@@ -2094,13 +2094,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
@@ -2126,13 +2126,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107">
@@ -2142,13 +2142,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108">
@@ -2158,13 +2158,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109">
@@ -2174,13 +2174,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110">
@@ -2190,13 +2190,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111">
@@ -2206,13 +2206,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>30</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112">
@@ -2222,13 +2222,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>17</v>
+        <v>187</v>
       </c>
     </row>
     <row r="113">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>79</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114">
@@ -2254,13 +2254,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>187</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116">
@@ -2286,13 +2286,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>142</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117">
@@ -2302,13 +2302,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118">
@@ -2318,13 +2318,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119">
@@ -2334,13 +2334,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="120">
@@ -2350,13 +2350,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121">
@@ -2366,13 +2366,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122">
@@ -2382,13 +2382,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>81</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
@@ -2398,13 +2398,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124">
@@ -2414,13 +2414,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>59</v>
+        <v>106</v>
       </c>
     </row>
     <row r="125">
@@ -2430,13 +2430,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126">
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="127">
@@ -2462,13 +2462,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128">
@@ -2478,13 +2478,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
@@ -2494,13 +2494,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130">
@@ -2510,13 +2510,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131">
@@ -2526,13 +2526,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132">
@@ -2542,13 +2542,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="133">
@@ -2558,13 +2558,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134">
@@ -2574,13 +2574,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135">
@@ -2590,13 +2590,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>89</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
@@ -2606,13 +2606,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137">
@@ -2622,13 +2622,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138">
@@ -2638,13 +2638,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C138" t="n">
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139">
@@ -2654,13 +2654,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140">
@@ -2670,13 +2670,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141">
@@ -2686,13 +2686,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142">
@@ -2702,13 +2702,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="143">
@@ -2718,13 +2718,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144">
@@ -2734,13 +2734,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="145">
@@ -2750,13 +2750,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146">
@@ -2766,13 +2766,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="148">
@@ -2798,13 +2798,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="149">
@@ -2814,13 +2814,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150">
@@ -2830,13 +2830,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="151">
@@ -2846,45 +2846,45 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D152" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D153" t="n">
-        <v>26</v>
+        <v>697</v>
       </c>
     </row>
     <row r="154">
@@ -2894,13 +2894,13 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C154" t="n">
         <v>4</v>
       </c>
       <c r="D154" t="n">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="155">
@@ -2910,13 +2910,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C155" t="n">
         <v>4</v>
       </c>
       <c r="D155" t="n">
-        <v>704</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156">
@@ -2926,13 +2926,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C156" t="n">
         <v>4</v>
       </c>
       <c r="D156" t="n">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157">
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C157" t="n">
         <v>4</v>
       </c>
       <c r="D157" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="158">
@@ -2958,13 +2958,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C158" t="n">
         <v>4</v>
       </c>
       <c r="D158" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159">
@@ -2974,13 +2974,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C159" t="n">
         <v>4</v>
       </c>
       <c r="D159" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="160">
@@ -2990,13 +2990,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C160" t="n">
         <v>4</v>
       </c>
       <c r="D160" t="n">
-        <v>78</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161">
@@ -3006,13 +3006,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C161" t="n">
         <v>4</v>
       </c>
       <c r="D161" t="n">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162">
@@ -3022,13 +3022,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C162" t="n">
         <v>4</v>
       </c>
       <c r="D162" t="n">
-        <v>176</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163">
@@ -3038,13 +3038,13 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C163" t="n">
         <v>4</v>
       </c>
       <c r="D163" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164">
@@ -3054,13 +3054,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C164" t="n">
         <v>4</v>
       </c>
       <c r="D164" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165">
@@ -3070,13 +3070,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C165" t="n">
         <v>4</v>
       </c>
       <c r="D165" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="166">
@@ -3086,13 +3086,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C166" t="n">
         <v>4</v>
       </c>
       <c r="D166" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C167" t="n">
         <v>4</v>
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C168" t="n">
         <v>4</v>
       </c>
       <c r="D168" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169">
@@ -3134,13 +3134,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C169" t="n">
         <v>4</v>
       </c>
       <c r="D169" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170">
@@ -3150,13 +3150,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C170" t="n">
         <v>4</v>
       </c>
       <c r="D170" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171">
@@ -3166,13 +3166,13 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C171" t="n">
         <v>4</v>
       </c>
       <c r="D171" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C172" t="n">
         <v>4</v>
@@ -3198,13 +3198,13 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C173" t="n">
         <v>4</v>
       </c>
       <c r="D173" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174">
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179">
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180">
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="183">
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="196">
@@ -3642,17 +3642,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="202">
@@ -3662,13 +3662,13 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
       </c>
       <c r="D202" t="n">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="203">
@@ -3678,13 +3678,13 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="204">
@@ -3694,317 +3694,317 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>1359</v>
+        <v>45</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
       </c>
       <c r="D206" t="n">
-        <v>2760</v>
+        <v>96</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
       </c>
       <c r="D210" t="n">
-        <v>135</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>486</v>
+        <v>32</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>529</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
       </c>
       <c r="D217" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B222" t="n">
+        <v>20</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
+      <c r="D222" t="n">
         <v>17</v>
-      </c>
-      <c r="C222" t="n">
-        <v>0</v>
-      </c>
-      <c r="D222" t="n">
-        <v>891</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224">
@@ -4014,13 +4014,13 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>75</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="225">
@@ -4030,13 +4030,13 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>30</v>
+        <v>184</v>
       </c>
     </row>
     <row r="226">
@@ -4046,13 +4046,13 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>137</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="227">
@@ -4062,13 +4062,13 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="228">
@@ -4078,13 +4078,13 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="229">
@@ -4094,13 +4094,13 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>20</v>
+        <v>134</v>
       </c>
     </row>
     <row r="230">
@@ -4110,13 +4110,13 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="231">
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
       </c>
       <c r="D231" t="n">
-        <v>338</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232">
@@ -4142,13 +4142,13 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
       </c>
       <c r="D232" t="n">
-        <v>90</v>
+        <v>234</v>
       </c>
     </row>
     <row r="233">
@@ -4158,13 +4158,13 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
       </c>
       <c r="D233" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="234">
@@ -4174,13 +4174,13 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
       </c>
       <c r="D234" t="n">
-        <v>44</v>
+        <v>248</v>
       </c>
     </row>
     <row r="235">
@@ -4190,13 +4190,13 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="236">
@@ -4206,13 +4206,13 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
       </c>
       <c r="D236" t="n">
-        <v>21</v>
+        <v>525</v>
       </c>
     </row>
     <row r="237">
@@ -4222,13 +4222,13 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="238">
@@ -4238,13 +4238,13 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239">
@@ -4254,13 +4254,13 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
       </c>
       <c r="D239" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
     </row>
     <row r="240">
@@ -4270,13 +4270,13 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
       </c>
       <c r="D240" t="n">
-        <v>136</v>
+        <v>41</v>
       </c>
     </row>
     <row r="241">
@@ -4286,13 +4286,13 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="242">
@@ -4302,13 +4302,13 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
       </c>
       <c r="D242" t="n">
-        <v>46</v>
+        <v>876</v>
       </c>
     </row>
     <row r="243">
@@ -4318,13 +4318,13 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="244">
@@ -4334,13 +4334,13 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="245">
@@ -4350,13 +4350,13 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
       </c>
       <c r="D245" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="246">
@@ -4366,13 +4366,13 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
       </c>
       <c r="D246" t="n">
-        <v>66</v>
+        <v>137</v>
       </c>
     </row>
     <row r="247">
@@ -4382,13 +4382,13 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="248">
@@ -4398,13 +4398,13 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
       </c>
       <c r="D248" t="n">
-        <v>141</v>
+        <v>21</v>
       </c>
     </row>
     <row r="249">
@@ -4414,13 +4414,13 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
       </c>
       <c r="D249" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250">
@@ -4430,13 +4430,13 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251">
@@ -4446,13 +4446,13 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
       </c>
       <c r="D251" t="n">
-        <v>24</v>
+        <v>337</v>
       </c>
     </row>
     <row r="252">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
       </c>
       <c r="D252" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
     </row>
     <row r="253">
@@ -4478,13 +4478,13 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
       </c>
       <c r="D253" t="n">
-        <v>195</v>
+        <v>38</v>
       </c>
     </row>
     <row r="254">
@@ -4494,13 +4494,13 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>1840</v>
+        <v>43</v>
       </c>
     </row>
     <row r="255">
@@ -4510,13 +4510,13 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
       </c>
       <c r="D255" t="n">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="256">
@@ -4526,13 +4526,13 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
       </c>
       <c r="D256" t="n">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="257">
@@ -4542,13 +4542,13 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
       </c>
       <c r="D257" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="258">
@@ -4558,13 +4558,13 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
       </c>
       <c r="D258" t="n">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="259">
@@ -4574,13 +4574,13 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
       </c>
       <c r="D259" t="n">
-        <v>14</v>
+        <v>98</v>
       </c>
     </row>
     <row r="260">
@@ -4590,13 +4590,13 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
       </c>
       <c r="D260" t="n">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="261">
@@ -4606,13 +4606,13 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
       </c>
       <c r="D261" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="262">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
       </c>
       <c r="D262" t="n">
-        <v>99</v>
+        <v>46</v>
       </c>
     </row>
     <row r="263">
@@ -4638,13 +4638,13 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
       </c>
       <c r="D263" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="264">
@@ -4654,13 +4654,13 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
       </c>
       <c r="D264" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="265">
@@ -4670,13 +4670,13 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C265" t="n">
         <v>0</v>
       </c>
       <c r="D265" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="266">
@@ -4686,13 +4686,13 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
       </c>
       <c r="D266" t="n">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="267">
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
       </c>
       <c r="D267" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="268">
@@ -4718,13 +4718,13 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
       </c>
       <c r="D268" t="n">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="269">
@@ -4734,13 +4734,13 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
       </c>
       <c r="D269" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="270">
@@ -4750,13 +4750,13 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C270" t="n">
         <v>0</v>
       </c>
       <c r="D270" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="271">
@@ -4766,13 +4766,13 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
       </c>
       <c r="D271" t="n">
-        <v>2829</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272">
@@ -4782,13 +4782,13 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
       </c>
       <c r="D272" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="273">
@@ -4798,13 +4798,13 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
       </c>
       <c r="D273" t="n">
-        <v>164</v>
+        <v>186</v>
       </c>
     </row>
     <row r="274">
@@ -4814,13 +4814,13 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
       </c>
       <c r="D274" t="n">
-        <v>53</v>
+        <v>640</v>
       </c>
     </row>
     <row r="275">
@@ -4830,13 +4830,13 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
       </c>
       <c r="D275" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="276">
@@ -4846,13 +4846,13 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C276" t="n">
         <v>0</v>
       </c>
       <c r="D276" t="n">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="277">
@@ -4862,13 +4862,13 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C277" t="n">
         <v>0</v>
       </c>
       <c r="D277" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
     </row>
     <row r="278">
@@ -4878,13 +4878,13 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
       </c>
       <c r="D278" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="279">
@@ -4894,13 +4894,13 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C279" t="n">
         <v>0</v>
       </c>
       <c r="D279" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="280">
@@ -4910,13 +4910,13 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C280" t="n">
         <v>0</v>
       </c>
       <c r="D280" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="281">
@@ -4926,13 +4926,13 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C281" t="n">
         <v>0</v>
       </c>
       <c r="D281" t="n">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="282">
@@ -4942,13 +4942,13 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C282" t="n">
         <v>0</v>
       </c>
       <c r="D282" t="n">
-        <v>23</v>
+        <v>92</v>
       </c>
     </row>
     <row r="283">
@@ -4958,13 +4958,13 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
       </c>
       <c r="D283" t="n">
-        <v>286</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="284">
@@ -4974,13 +4974,13 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
       </c>
       <c r="D284" t="n">
-        <v>141</v>
+        <v>30</v>
       </c>
     </row>
     <row r="285">
@@ -4990,13 +4990,13 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
       </c>
       <c r="D285" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="286">
@@ -5006,13 +5006,13 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
       </c>
       <c r="D286" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="287">
@@ -5022,13 +5022,13 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
       </c>
       <c r="D287" t="n">
-        <v>44</v>
+        <v>83</v>
       </c>
     </row>
     <row r="288">
@@ -5038,13 +5038,13 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C288" t="n">
         <v>0</v>
       </c>
       <c r="D288" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="289">
@@ -5054,13 +5054,13 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
       </c>
       <c r="D289" t="n">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="290">
@@ -5070,13 +5070,13 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
       </c>
       <c r="D290" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291">
@@ -5086,13 +5086,13 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
       </c>
       <c r="D291" t="n">
-        <v>602</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="292">
@@ -5102,13 +5102,13 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
       </c>
       <c r="D292" t="n">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="293">
@@ -5118,13 +5118,13 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
       </c>
       <c r="D293" t="n">
-        <v>76</v>
+        <v>162</v>
       </c>
     </row>
     <row r="294">
@@ -5134,13 +5134,13 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C294" t="n">
         <v>0</v>
       </c>
       <c r="D294" t="n">
-        <v>194</v>
+        <v>53</v>
       </c>
     </row>
     <row r="295">
@@ -5150,13 +5150,13 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
       </c>
       <c r="D295" t="n">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="296">
@@ -5166,13 +5166,13 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
       </c>
       <c r="D296" t="n">
-        <v>172</v>
+        <v>94</v>
       </c>
     </row>
     <row r="297">
@@ -5182,13 +5182,13 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
       </c>
       <c r="D297" t="n">
-        <v>234</v>
+        <v>47</v>
       </c>
     </row>
     <row r="298">
@@ -5198,13 +5198,13 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
       </c>
       <c r="D298" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="299">
@@ -5214,13 +5214,13 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D299" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="300">
@@ -5230,13 +5230,13 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D300" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="301">
@@ -5246,13 +5246,13 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D301" t="n">
-        <v>60</v>
+        <v>107</v>
       </c>
     </row>
     <row r="302">
@@ -5262,13 +5262,13 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D302" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="303">
@@ -5278,13 +5278,13 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D303" t="n">
-        <v>96</v>
+        <v>205</v>
       </c>
     </row>
     <row r="304">
@@ -5294,13 +5294,13 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D304" t="n">
-        <v>12</v>
+        <v>282</v>
       </c>
     </row>
     <row r="305">
@@ -5310,13 +5310,13 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D305" t="n">
-        <v>26</v>
+        <v>141</v>
       </c>
     </row>
     <row r="306">
@@ -5326,13 +5326,13 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D306" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="307">
@@ -5342,13 +5342,13 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D307" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="308">
@@ -5358,13 +5358,13 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D308" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="309">
@@ -5374,13 +5374,13 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D309" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="310">
@@ -5390,551 +5390,551 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D310" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
       </c>
       <c r="D311" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
       </c>
       <c r="D312" t="n">
-        <v>28</v>
+        <v>601</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="C313" t="n">
         <v>0</v>
       </c>
       <c r="D313" t="n">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
       </c>
       <c r="D314" t="n">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="C315" t="n">
         <v>0</v>
       </c>
       <c r="D315" t="n">
-        <v>18</v>
+        <v>192</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C316" t="n">
         <v>0</v>
       </c>
       <c r="D316" t="n">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C317" t="n">
         <v>0</v>
       </c>
       <c r="D317" t="n">
-        <v>28</v>
+        <v>169</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
       </c>
       <c r="D318" t="n">
-        <v>22</v>
+        <v>231</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
       </c>
       <c r="D319" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_04</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B320" t="n">
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D320" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
       </c>
       <c r="D321" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C322" t="n">
         <v>1</v>
       </c>
       <c r="D322" t="n">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C323" t="n">
         <v>1</v>
       </c>
       <c r="D323" t="n">
-        <v>188</v>
+        <v>19</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C324" t="n">
         <v>1</v>
       </c>
       <c r="D324" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C325" t="n">
         <v>1</v>
       </c>
       <c r="D325" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B326" t="n">
         <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D326" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>1</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D327" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B328" t="n">
         <v>2</v>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D328" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B329" t="n">
         <v>3</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D329" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B330" t="n">
         <v>4</v>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D330" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B331" t="n">
         <v>5</v>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D331" t="n">
-        <v>18</v>
+        <v>162</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B332" t="n">
         <v>6</v>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D332" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B333" t="n">
         <v>7</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D333" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B334" t="n">
         <v>8</v>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D334" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B335" t="n">
         <v>9</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D335" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B336" t="n">
         <v>10</v>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D336" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B337" t="n">
         <v>11</v>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D337" t="n">
-        <v>33</v>
+        <v>109</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B338" t="n">
         <v>12</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D338" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B339" t="n">
         <v>13</v>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D339" t="n">
-        <v>27</v>
+        <v>516</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B340" t="n">
         <v>14</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D340" t="n">
-        <v>204</v>
+        <v>11</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>15</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D341" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B342" t="n">
         <v>16</v>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D342" t="n">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C343" t="n">
         <v>1</v>
       </c>
       <c r="D343" t="n">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
         <v>1</v>
@@ -5946,113 +5946,769 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C345" t="n">
         <v>1</v>
       </c>
       <c r="D345" t="n">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C346" t="n">
         <v>1</v>
       </c>
       <c r="D346" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C347" t="n">
         <v>1</v>
       </c>
       <c r="D347" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C348" t="n">
         <v>1</v>
       </c>
       <c r="D348" t="n">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C349" t="n">
         <v>1</v>
       </c>
       <c r="D349" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_08</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D350" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>8</v>
+      </c>
+      <c r="C351" t="n">
+        <v>1</v>
+      </c>
+      <c r="D351" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>9</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1</v>
+      </c>
+      <c r="D352" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>10</v>
+      </c>
+      <c r="C353" t="n">
+        <v>1</v>
+      </c>
+      <c r="D353" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>11</v>
+      </c>
+      <c r="C354" t="n">
+        <v>1</v>
+      </c>
+      <c r="D354" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>12</v>
+      </c>
+      <c r="C355" t="n">
+        <v>1</v>
+      </c>
+      <c r="D355" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>13</v>
+      </c>
+      <c r="C356" t="n">
+        <v>1</v>
+      </c>
+      <c r="D356" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>14</v>
+      </c>
+      <c r="C357" t="n">
+        <v>1</v>
+      </c>
+      <c r="D357" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>15</v>
+      </c>
+      <c r="C358" t="n">
+        <v>1</v>
+      </c>
+      <c r="D358" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>16</v>
+      </c>
+      <c r="C359" t="n">
+        <v>1</v>
+      </c>
+      <c r="D359" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>17</v>
+      </c>
+      <c r="C360" t="n">
+        <v>1</v>
+      </c>
+      <c r="D360" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>18</v>
+      </c>
+      <c r="C361" t="n">
+        <v>1</v>
+      </c>
+      <c r="D361" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>19</v>
+      </c>
+      <c r="C362" t="n">
+        <v>1</v>
+      </c>
+      <c r="D362" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_02</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>20</v>
+      </c>
+      <c r="C363" t="n">
+        <v>1</v>
+      </c>
+      <c r="D363" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_08</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>0</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0</v>
+      </c>
+      <c r="D364" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>0</v>
+      </c>
+      <c r="C365" t="n">
+        <v>1</v>
+      </c>
+      <c r="D365" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+      <c r="C366" t="n">
+        <v>1</v>
+      </c>
+      <c r="D366" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>2</v>
+      </c>
+      <c r="C367" t="n">
+        <v>1</v>
+      </c>
+      <c r="D367" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>3</v>
+      </c>
+      <c r="C368" t="n">
+        <v>1</v>
+      </c>
+      <c r="D368" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>4</v>
+      </c>
+      <c r="C369" t="n">
+        <v>1</v>
+      </c>
+      <c r="D369" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>5</v>
+      </c>
+      <c r="C370" t="n">
+        <v>1</v>
+      </c>
+      <c r="D370" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>6</v>
+      </c>
+      <c r="C371" t="n">
+        <v>1</v>
+      </c>
+      <c r="D371" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>7</v>
+      </c>
+      <c r="C372" t="n">
+        <v>1</v>
+      </c>
+      <c r="D372" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>8</v>
+      </c>
+      <c r="C373" t="n">
+        <v>1</v>
+      </c>
+      <c r="D373" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>9</v>
+      </c>
+      <c r="C374" t="n">
+        <v>1</v>
+      </c>
+      <c r="D374" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>10</v>
+      </c>
+      <c r="C375" t="n">
+        <v>1</v>
+      </c>
+      <c r="D375" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>11</v>
+      </c>
+      <c r="C376" t="n">
+        <v>1</v>
+      </c>
+      <c r="D376" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>12</v>
+      </c>
+      <c r="C377" t="n">
+        <v>1</v>
+      </c>
+      <c r="D377" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>13</v>
+      </c>
+      <c r="C378" t="n">
+        <v>1</v>
+      </c>
+      <c r="D378" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>14</v>
+      </c>
+      <c r="C379" t="n">
+        <v>1</v>
+      </c>
+      <c r="D379" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>15</v>
+      </c>
+      <c r="C380" t="n">
+        <v>1</v>
+      </c>
+      <c r="D380" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>16</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1</v>
+      </c>
+      <c r="D381" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>17</v>
+      </c>
+      <c r="C382" t="n">
+        <v>1</v>
+      </c>
+      <c r="D382" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>18</v>
+      </c>
+      <c r="C383" t="n">
+        <v>1</v>
+      </c>
+      <c r="D383" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>19</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1</v>
+      </c>
+      <c r="D384" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>20</v>
+      </c>
+      <c r="C385" t="n">
+        <v>1</v>
+      </c>
+      <c r="D385" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>21</v>
+      </c>
+      <c r="C386" t="n">
+        <v>1</v>
+      </c>
+      <c r="D386" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>22</v>
+      </c>
+      <c r="C387" t="n">
+        <v>1</v>
+      </c>
+      <c r="D387" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>23</v>
+      </c>
+      <c r="C388" t="n">
+        <v>1</v>
+      </c>
+      <c r="D388" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>24</v>
+      </c>
+      <c r="C389" t="n">
+        <v>1</v>
+      </c>
+      <c r="D389" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>25</v>
+      </c>
+      <c r="C390" t="n">
+        <v>1</v>
+      </c>
+      <c r="D390" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
           <t>1K_PFF_TAX1BP1_08</t>
         </is>
       </c>
-      <c r="B351" t="n">
-        <v>1</v>
-      </c>
-      <c r="C351" t="n">
-        <v>0</v>
-      </c>
-      <c r="D351" t="n">
-        <v>15</v>
+      <c r="B391" t="n">
+        <v>0</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0</v>
+      </c>
+      <c r="D391" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0</v>
+      </c>
+      <c r="D392" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
